--- a/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
+++ b/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="478">
   <si>
     <t>文本RTC时钟显示</t>
   </si>
@@ -96,7 +96,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>0x1009.bit8</t>
+    <t>0x1009.bit0</t>
   </si>
   <si>
     <t>第1路数字量输出</t>
@@ -120,7 +120,7 @@
     <t>4G_Net</t>
   </si>
   <si>
-    <t>0x1009.bit9</t>
+    <t>0x1009.bit1</t>
   </si>
   <si>
     <t>第2路数字量输出</t>
@@ -144,7 +144,7 @@
     <t>4G_Link</t>
   </si>
   <si>
-    <t>0x1009.bitA</t>
+    <t>0x1009.bit2</t>
   </si>
   <si>
     <t>第3路数字量输出</t>
@@ -168,7 +168,7 @@
     <t>WIIF_Ready</t>
   </si>
   <si>
-    <t>0x1009.bitB</t>
+    <t>0x1009.bit3</t>
   </si>
   <si>
     <t>第4路数字量输出</t>
@@ -192,7 +192,7 @@
     <t>WIFI_Link</t>
   </si>
   <si>
-    <t>0x1009.bitC</t>
+    <t>0x1009.bit4</t>
   </si>
   <si>
     <t>第5路数字量输出</t>
@@ -216,7 +216,7 @@
     <t>0x1005.bit5</t>
   </si>
   <si>
-    <t>0x1009.bitD</t>
+    <t>0x1009.bit5</t>
   </si>
   <si>
     <t>第6路数字量输出</t>
@@ -234,7 +234,7 @@
     <t>0x1005.bit6</t>
   </si>
   <si>
-    <t>0x1009.bitE</t>
+    <t>0x1009.bit6</t>
   </si>
   <si>
     <t>第7路数字量输出</t>
@@ -252,7 +252,7 @@
     <t>0x1005.bit7</t>
   </si>
   <si>
-    <t>0x1009.bitF</t>
+    <t>0x1009.bit7</t>
   </si>
   <si>
     <t>第8路数字量输出</t>
@@ -486,6 +486,9 @@
     <t>阈值设定2</t>
   </si>
   <si>
+    <t>重置组态</t>
+  </si>
+  <si>
     <t>模式</t>
   </si>
   <si>
@@ -514,6 +517,12 @@
   </si>
   <si>
     <t>1.8Mpa</t>
+  </si>
+  <si>
+    <t>重置组态确认按钮</t>
+  </si>
+  <si>
+    <t>0x100B</t>
   </si>
   <si>
     <t>汽化器出口压力启动值</t>
@@ -1449,8 +1458,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1505,30 +1514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,7 +1529,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,14 +1544,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1574,6 +1560,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,7 +1614,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1628,22 +1652,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1784,7 +1793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,7 +1823,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,13 +1859,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,25 +1925,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1856,91 +1949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,26 +2284,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2328,6 +2317,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2343,17 +2347,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2365,10 +2374,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2377,133 +2386,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3315,8 +3324,8 @@
   <sheetPr/>
   <dimension ref="B2:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H55" workbookViewId="0">
-      <selection activeCell="Z89" sqref="Z89"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4099,11 +4108,6 @@
       <c r="S22" s="73"/>
       <c r="T22" s="73"/>
       <c r="U22" s="93"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
       <c r="AA22" s="113"/>
     </row>
     <row r="23" ht="15.15" spans="2:27">
@@ -4127,11 +4131,6 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="93"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
       <c r="AA23" s="113"/>
     </row>
     <row r="24" spans="2:27">
@@ -4161,11 +4160,6 @@
       <c r="S24" s="74"/>
       <c r="T24" s="96"/>
       <c r="U24" s="93"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
       <c r="AA24" s="113"/>
     </row>
     <row r="25" spans="2:27">
@@ -4189,11 +4183,6 @@
       <c r="S25" s="74"/>
       <c r="T25" s="96"/>
       <c r="U25" s="93"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
       <c r="AA25" s="113"/>
     </row>
     <row r="26" spans="2:27">
@@ -4237,11 +4226,6 @@
         <v>86</v>
       </c>
       <c r="U26" s="93"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
       <c r="AA26" s="113"/>
     </row>
     <row r="27" spans="2:27">
@@ -4285,11 +4269,6 @@
         <v>93</v>
       </c>
       <c r="U27" s="93"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
       <c r="AA27" s="113"/>
     </row>
     <row r="28" spans="2:27">
@@ -4333,11 +4312,6 @@
         <v>100</v>
       </c>
       <c r="U28" s="93"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
       <c r="AA28" s="113"/>
     </row>
     <row r="29" ht="15.15" spans="2:27">
@@ -4783,7 +4757,7 @@
       <c r="S40" s="25"/>
       <c r="T40" s="25"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:28">
       <c r="B41" s="25"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
@@ -4803,11 +4777,18 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="X41" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="99"/>
+      <c r="AA41" s="99"/>
+      <c r="AB41" s="99"/>
+    </row>
+    <row r="42" spans="2:28">
       <c r="B42" s="25"/>
       <c r="C42" s="49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="3" t="s">
@@ -4834,30 +4815,35 @@
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
-    </row>
-    <row r="43" spans="2:22">
+      <c r="X42" s="99"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="99"/>
+      <c r="AA42" s="99"/>
+      <c r="AB42" s="99"/>
+    </row>
+    <row r="43" spans="2:28">
       <c r="B43" s="25"/>
       <c r="C43" s="50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F43" s="50"/>
       <c r="G43" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I43" s="50"/>
       <c r="J43" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M43" s="79"/>
       <c r="N43" s="79"/>
@@ -4865,30 +4851,41 @@
       <c r="P43" s="79"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S43" s="103"/>
       <c r="T43" s="103"/>
       <c r="U43" s="103"/>
       <c r="V43" s="103"/>
-    </row>
-    <row r="44" spans="2:22">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="84"/>
+    </row>
+    <row r="44" spans="2:28">
       <c r="B44" s="25"/>
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
       <c r="E44" s="50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F44" s="50"/>
       <c r="G44" s="50" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I44" s="50"/>
       <c r="J44" s="50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K44" s="25"/>
       <c r="L44" s="79"/>
@@ -4902,26 +4899,37 @@
       <c r="T44" s="103"/>
       <c r="U44" s="103"/>
       <c r="V44" s="103"/>
-    </row>
-    <row r="45" spans="2:22">
+      <c r="X44" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB44" s="11"/>
+    </row>
+    <row r="45" spans="2:28">
       <c r="B45" s="25"/>
       <c r="C45" s="51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D45" s="52"/>
       <c r="E45" s="13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="3" t="s">
@@ -4947,92 +4955,102 @@
         <v>5</v>
       </c>
       <c r="V45" s="84"/>
-    </row>
-    <row r="46" spans="2:22">
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+    </row>
+    <row r="46" spans="2:28">
       <c r="B46" s="25"/>
       <c r="C46" s="53"/>
       <c r="D46" s="54"/>
       <c r="E46" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S46" s="11"/>
       <c r="T46" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="V46" s="11"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="101"/>
+      <c r="AB46" s="115"/>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="25"/>
       <c r="C47" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10" t="s">
         <v>8</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="V47" s="10"/>
     </row>
@@ -5041,29 +5059,29 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="25"/>
@@ -5076,33 +5094,33 @@
     <row r="49" spans="2:20">
       <c r="B49" s="25"/>
       <c r="C49" s="55" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="25"/>
@@ -5115,18 +5133,18 @@
       <c r="C50" s="57"/>
       <c r="D50" s="58"/>
       <c r="E50" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K50" s="25"/>
       <c r="L50" s="80" t="s">
@@ -5144,22 +5162,22 @@
     <row r="51" spans="2:26">
       <c r="B51" s="25"/>
       <c r="C51" s="59" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D51" s="59"/>
       <c r="E51" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F51" s="59"/>
       <c r="G51" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H51" s="59" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I51" s="59"/>
       <c r="J51" s="59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -5168,7 +5186,7 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="107" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5184,18 +5202,18 @@
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="59" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I52" s="59"/>
       <c r="J52" s="59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -5217,26 +5235,26 @@
     <row r="53" spans="2:26">
       <c r="B53" s="25"/>
       <c r="C53" s="20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="81" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M53" s="82"/>
       <c r="N53" s="82"/>
@@ -5264,18 +5282,18 @@
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L54" s="82"/>
       <c r="M54" s="82"/>
@@ -5283,14 +5301,14 @@
       <c r="O54" s="82"/>
       <c r="P54" s="82"/>
       <c r="R54" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S54" s="11"/>
       <c r="T54" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="25"/>
@@ -5322,14 +5340,14 @@
       </c>
       <c r="P55" s="84"/>
       <c r="R55" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S55" s="11"/>
       <c r="T55" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="V55" s="11"/>
       <c r="W55" s="25"/>
@@ -5347,25 +5365,25 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="L56" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P56" s="11"/>
       <c r="R56" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S56" s="11"/>
       <c r="T56" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="25"/>
@@ -5388,14 +5406,14 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="R57" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="V57" s="11"/>
       <c r="W57" s="25"/>
@@ -5418,14 +5436,14 @@
       <c r="O58" s="86"/>
       <c r="P58" s="87"/>
       <c r="R58" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S58" s="11"/>
       <c r="T58" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="V58" s="11"/>
       <c r="W58" s="25"/>
@@ -5443,14 +5461,14 @@
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="R59" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="V59" s="11"/>
       <c r="W59" s="25"/>
@@ -5471,14 +5489,14 @@
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
       <c r="R60" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="S60" s="11"/>
       <c r="T60" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="V60" s="11"/>
     </row>
@@ -5490,14 +5508,14 @@
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
       <c r="R61" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S61" s="11"/>
       <c r="T61" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U61" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="V61" s="11"/>
     </row>
@@ -5539,7 +5557,7 @@
       <c r="U64" s="89"/>
       <c r="V64" s="111"/>
       <c r="X64" s="98" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y64" s="99"/>
       <c r="Z64" s="99"/>
@@ -5551,12 +5569,12 @@
       <c r="C65" s="25"/>
       <c r="I65" s="116"/>
       <c r="J65" s="117" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K65" s="117"/>
       <c r="P65" s="25"/>
       <c r="Q65" s="125" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R65" s="126"/>
       <c r="S65" s="126"/>
@@ -5614,14 +5632,14 @@
       <c r="U67" s="84"/>
       <c r="V67" s="127"/>
       <c r="X67" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Y67" s="11"/>
       <c r="Z67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA67" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AB67" s="11"/>
     </row>
@@ -5630,137 +5648,137 @@
       <c r="J68" s="117"/>
       <c r="K68" s="117"/>
       <c r="Q68" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U68" s="11"/>
       <c r="V68" s="127"/>
       <c r="X68" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AB68" s="11"/>
     </row>
     <row r="69" spans="9:28">
       <c r="I69" s="116"/>
       <c r="Q69" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R69" s="11"/>
       <c r="S69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="U69" s="11"/>
       <c r="V69" s="127"/>
       <c r="X69" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Y69" s="11"/>
       <c r="Z69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AB69" s="11"/>
     </row>
     <row r="70" spans="9:28">
       <c r="I70" s="116"/>
       <c r="Q70" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R70" s="11"/>
       <c r="S70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="U70" s="11"/>
       <c r="V70" s="127"/>
       <c r="X70" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Y70" s="11"/>
       <c r="Z70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AB70" s="11"/>
     </row>
     <row r="71" spans="9:28">
       <c r="I71" s="116"/>
       <c r="Q71" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="R71" s="11"/>
       <c r="S71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="U71" s="11"/>
       <c r="V71" s="127"/>
       <c r="X71" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AB71" s="11"/>
     </row>
     <row r="72" spans="9:28">
       <c r="I72" s="116"/>
       <c r="J72" s="118" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K72" s="119"/>
       <c r="L72" s="119"/>
       <c r="M72" s="119"/>
       <c r="N72" s="119"/>
       <c r="Q72" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R72" s="11"/>
       <c r="S72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="U72" s="11"/>
       <c r="V72" s="127"/>
       <c r="X72" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA72" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AB72" s="11"/>
     </row>
@@ -5772,26 +5790,26 @@
       <c r="M73" s="119"/>
       <c r="N73" s="119"/>
       <c r="Q73" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="R73" s="11"/>
       <c r="S73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="127"/>
       <c r="X73" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA73" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AB73" s="11"/>
     </row>
@@ -5809,248 +5827,248 @@
       </c>
       <c r="N74" s="84"/>
       <c r="Q74" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="R74" s="11"/>
       <c r="S74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="U74" s="10"/>
       <c r="V74" s="127"/>
       <c r="X74" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA74" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AB74" s="11"/>
     </row>
     <row r="75" spans="9:28">
       <c r="I75" s="116"/>
       <c r="J75" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N75" s="11"/>
       <c r="Q75" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="U75" s="10"/>
       <c r="V75" s="127"/>
       <c r="X75" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA75" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AB75" s="11"/>
     </row>
     <row r="76" spans="9:28">
       <c r="I76" s="116"/>
       <c r="J76" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N76" s="11"/>
       <c r="Q76" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="R76" s="11"/>
       <c r="S76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="127"/>
       <c r="X76" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA76" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AB76" s="11"/>
     </row>
     <row r="77" spans="9:28">
       <c r="I77" s="116"/>
       <c r="J77" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="N77" s="11"/>
       <c r="Q77" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="R77" s="11"/>
       <c r="S77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U77" s="10"/>
       <c r="V77" s="127"/>
       <c r="X77" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA77" s="11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AB77" s="11"/>
     </row>
     <row r="78" spans="9:28">
       <c r="I78" s="116"/>
       <c r="J78" s="11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N78" s="11"/>
       <c r="Q78" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R78" s="11"/>
       <c r="S78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="127"/>
       <c r="X78" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA78" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AB78" s="11"/>
     </row>
     <row r="79" spans="9:28">
       <c r="I79" s="116"/>
       <c r="J79" s="11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N79" s="11"/>
       <c r="Q79" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R79" s="11"/>
       <c r="S79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U79" s="10"/>
       <c r="V79" s="127"/>
       <c r="X79" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA79" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB79" s="11"/>
     </row>
     <row r="80" spans="9:28">
       <c r="I80" s="116"/>
       <c r="J80" s="11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N80" s="11"/>
       <c r="Q80" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="R80" s="11"/>
       <c r="S80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="U80" s="10"/>
       <c r="V80" s="127"/>
       <c r="X80" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA80" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AB80" s="11"/>
     </row>
@@ -6062,26 +6080,26 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="Q81" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="R81" s="11"/>
       <c r="S81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="U81" s="10"/>
       <c r="V81" s="127"/>
       <c r="X81" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA81" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AB81" s="11"/>
     </row>
@@ -6093,40 +6111,40 @@
       <c r="M82" s="121"/>
       <c r="N82" s="122"/>
       <c r="Q82" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="R82" s="11"/>
       <c r="S82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="U82" s="10"/>
       <c r="V82" s="127"/>
       <c r="X82" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA82" s="11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AB82" s="11"/>
     </row>
     <row r="83" ht="15.15" spans="9:28">
       <c r="I83" s="116"/>
       <c r="Q83" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="R83" s="11"/>
       <c r="S83" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="U83" s="10"/>
       <c r="V83" s="127"/>
@@ -6154,7 +6172,7 @@
     </row>
     <row r="85" ht="15.15"/>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="365">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:M4"/>
@@ -6332,20 +6350,27 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="H43:I43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="H44:I44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="AA44:AB44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="O45:P45"/>
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="U45:V45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="AA45:AB45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="O46:P46"/>
     <mergeCell ref="R46:S46"/>
     <mergeCell ref="U46:V46"/>
+    <mergeCell ref="X46:AB46"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="L47:M47"/>
@@ -6512,6 +6537,7 @@
     <mergeCell ref="J65:K68"/>
     <mergeCell ref="V10:Z11"/>
     <mergeCell ref="X64:AB65"/>
+    <mergeCell ref="X41:AB42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6533,28 +6559,28 @@
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="T2" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -6631,47 +6657,47 @@
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L5" s="14"/>
       <c r="N5" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="R5" s="14"/>
       <c r="T5" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="X5" s="8"/>
     </row>
@@ -6684,7 +6710,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="10">
@@ -6695,7 +6721,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L6" s="10"/>
       <c r="N6" s="10">
@@ -6706,7 +6732,7 @@
         <v>25</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="R6" s="10"/>
       <c r="T6" s="10">
@@ -6717,7 +6743,7 @@
         <v>25</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="X6" s="10"/>
     </row>
@@ -6730,7 +6756,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10">
@@ -6741,7 +6767,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L7" s="10"/>
       <c r="N7" s="10">
@@ -6752,7 +6778,7 @@
         <v>25</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="R7" s="10"/>
       <c r="T7" s="10">
@@ -6763,7 +6789,7 @@
         <v>25</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="X7" s="10"/>
     </row>
@@ -6776,7 +6802,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F8" s="10"/>
       <c r="H8" s="10">
@@ -6787,7 +6813,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L8" s="10"/>
       <c r="N8" s="10">
@@ -6798,7 +6824,7 @@
         <v>25</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="R8" s="10"/>
       <c r="T8" s="10">
@@ -6809,7 +6835,7 @@
         <v>25</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="X8" s="10"/>
     </row>
@@ -6822,7 +6848,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F9" s="10"/>
       <c r="H9" s="10">
@@ -6833,7 +6859,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L9" s="10"/>
       <c r="N9" s="10">
@@ -6844,7 +6870,7 @@
         <v>25</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R9" s="10"/>
       <c r="T9" s="10">
@@ -6855,7 +6881,7 @@
         <v>25</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="X9" s="10"/>
     </row>
@@ -6868,7 +6894,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10">
@@ -6879,7 +6905,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L10" s="10"/>
       <c r="N10" s="10">
@@ -6890,7 +6916,7 @@
         <v>25</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="R10" s="10"/>
       <c r="T10" s="10">
@@ -6901,7 +6927,7 @@
         <v>25</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="X10" s="10"/>
     </row>
@@ -6914,7 +6940,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="10">
@@ -6925,7 +6951,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L11" s="10"/>
       <c r="N11" s="10">
@@ -6936,7 +6962,7 @@
         <v>25</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="R11" s="10"/>
       <c r="T11" s="10">
@@ -6947,7 +6973,7 @@
         <v>25</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="X11" s="10"/>
     </row>
@@ -6960,7 +6986,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="10">
@@ -6971,7 +6997,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L12" s="10"/>
       <c r="N12" s="10">
@@ -6982,7 +7008,7 @@
         <v>25</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="R12" s="10"/>
       <c r="T12" s="10">
@@ -6993,7 +7019,7 @@
         <v>25</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="X12" s="10"/>
     </row>
@@ -7006,7 +7032,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F13" s="10"/>
       <c r="H13" s="10">
@@ -7017,7 +7043,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L13" s="10"/>
       <c r="N13" s="10">
@@ -7028,7 +7054,7 @@
         <v>25</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="R13" s="10"/>
       <c r="T13" s="10">
@@ -7039,7 +7065,7 @@
         <v>25</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="X13" s="10"/>
     </row>
@@ -7075,28 +7101,28 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="H18" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="N18" s="12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="T18" s="12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
@@ -7173,47 +7199,47 @@
     </row>
     <row r="21" spans="2:24">
       <c r="B21" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F21" s="14"/>
       <c r="H21" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L21" s="14"/>
       <c r="N21" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R21" s="14"/>
       <c r="T21" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X21" s="14"/>
     </row>
@@ -7226,7 +7252,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F22" s="10"/>
       <c r="H22" s="10">
@@ -7237,7 +7263,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L22" s="10"/>
       <c r="N22" s="10">
@@ -7248,7 +7274,7 @@
         <v>25</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="R22" s="10"/>
       <c r="T22" s="10">
@@ -7259,7 +7285,7 @@
         <v>25</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="X22" s="10"/>
     </row>
@@ -7272,7 +7298,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F23" s="10"/>
       <c r="H23" s="10">
@@ -7283,7 +7309,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L23" s="10"/>
       <c r="N23" s="10">
@@ -7294,7 +7320,7 @@
         <v>25</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="R23" s="10"/>
       <c r="T23" s="10">
@@ -7305,7 +7331,7 @@
         <v>25</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="X23" s="10"/>
     </row>
@@ -7318,7 +7344,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="10">
@@ -7329,7 +7355,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L24" s="10"/>
       <c r="N24" s="10">
@@ -7340,7 +7366,7 @@
         <v>25</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="R24" s="10"/>
       <c r="T24" s="10">
@@ -7351,7 +7377,7 @@
         <v>25</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="X24" s="10"/>
     </row>
@@ -7364,7 +7390,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F25" s="10"/>
       <c r="H25" s="10">
@@ -7375,7 +7401,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="10">
@@ -7386,7 +7412,7 @@
         <v>25</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="R25" s="10"/>
       <c r="T25" s="10">
@@ -7397,7 +7423,7 @@
         <v>25</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="X25" s="10"/>
     </row>
@@ -7410,7 +7436,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F26" s="10"/>
       <c r="H26" s="10">
@@ -7421,7 +7447,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="10">
@@ -7432,7 +7458,7 @@
         <v>25</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="R26" s="10"/>
       <c r="T26" s="10">
@@ -7443,7 +7469,7 @@
         <v>25</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="X26" s="10"/>
     </row>
@@ -7456,7 +7482,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F27" s="10"/>
       <c r="H27" s="10">
@@ -7467,7 +7493,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="10">
@@ -7478,7 +7504,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="R27" s="10"/>
       <c r="T27" s="10">
@@ -7489,7 +7515,7 @@
         <v>25</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="X27" s="10"/>
     </row>
@@ -7502,7 +7528,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F28" s="10"/>
       <c r="H28" s="10">
@@ -7513,7 +7539,7 @@
         <v>25</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="10">
@@ -7524,7 +7550,7 @@
         <v>25</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="R28" s="10"/>
       <c r="T28" s="10">
@@ -7535,7 +7561,7 @@
         <v>25</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="X28" s="10"/>
     </row>
@@ -7548,7 +7574,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F29" s="10"/>
       <c r="H29" s="10">
@@ -7559,7 +7585,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L29" s="10"/>
       <c r="N29" s="10">
@@ -7570,7 +7596,7 @@
         <v>25</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="R29" s="10"/>
       <c r="T29" s="10">
@@ -7581,7 +7607,7 @@
         <v>25</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="X29" s="10"/>
     </row>
@@ -7617,28 +7643,28 @@
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="15" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="H34" s="15" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="N34" s="15" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="T34" s="15" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -7715,47 +7741,47 @@
     </row>
     <row r="37" spans="2:24">
       <c r="B37" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F37" s="14"/>
       <c r="H37" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L37" s="14"/>
       <c r="N37" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="R37" s="14"/>
       <c r="T37" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="X37" s="14"/>
     </row>
@@ -7768,7 +7794,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F38" s="10"/>
       <c r="H38" s="10">
@@ -7779,7 +7805,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L38" s="10"/>
       <c r="N38" s="10">
@@ -7790,7 +7816,7 @@
         <v>25</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="R38" s="10"/>
       <c r="T38" s="10">
@@ -7801,7 +7827,7 @@
         <v>25</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="X38" s="10"/>
     </row>
@@ -7814,7 +7840,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F39" s="10"/>
       <c r="H39" s="10">
@@ -7825,7 +7851,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L39" s="10"/>
       <c r="N39" s="10">
@@ -7836,7 +7862,7 @@
         <v>25</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="R39" s="10"/>
       <c r="T39" s="10">
@@ -7847,7 +7873,7 @@
         <v>25</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="X39" s="10"/>
     </row>
@@ -7860,7 +7886,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="10">
@@ -7871,7 +7897,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L40" s="10"/>
       <c r="N40" s="10">
@@ -7882,7 +7908,7 @@
         <v>25</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="R40" s="10"/>
       <c r="T40" s="10">
@@ -7893,7 +7919,7 @@
         <v>25</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="X40" s="10"/>
     </row>
@@ -7906,7 +7932,7 @@
         <v>25</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F41" s="10"/>
       <c r="H41" s="10">
@@ -7917,7 +7943,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L41" s="10"/>
       <c r="N41" s="10">
@@ -7928,7 +7954,7 @@
         <v>25</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R41" s="10"/>
       <c r="T41" s="10">
@@ -7939,7 +7965,7 @@
         <v>25</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="X41" s="10"/>
     </row>
@@ -7952,7 +7978,7 @@
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F42" s="10"/>
       <c r="H42" s="10">
@@ -7963,7 +7989,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L42" s="10"/>
       <c r="N42" s="10">
@@ -7974,7 +8000,7 @@
         <v>25</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="R42" s="10"/>
       <c r="T42" s="10">
@@ -7985,7 +8011,7 @@
         <v>25</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="X42" s="10"/>
     </row>
@@ -7998,7 +8024,7 @@
         <v>25</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F43" s="10"/>
       <c r="H43" s="10">
@@ -8009,7 +8035,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L43" s="10"/>
       <c r="N43" s="10">
@@ -8020,7 +8046,7 @@
         <v>25</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="R43" s="10"/>
       <c r="T43" s="10">
@@ -8031,7 +8057,7 @@
         <v>25</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="X43" s="10"/>
     </row>
@@ -8044,7 +8070,7 @@
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F44" s="10"/>
       <c r="H44" s="10">
@@ -8055,7 +8081,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L44" s="10"/>
       <c r="N44" s="10">
@@ -8066,7 +8092,7 @@
         <v>25</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="R44" s="10"/>
       <c r="T44" s="10">
@@ -8077,7 +8103,7 @@
         <v>25</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="X44" s="10"/>
     </row>
@@ -8090,7 +8116,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F45" s="10"/>
       <c r="H45" s="10">
@@ -8101,7 +8127,7 @@
         <v>25</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L45" s="10"/>
       <c r="N45" s="10">
@@ -8112,7 +8138,7 @@
         <v>25</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="R45" s="10"/>
       <c r="T45" s="10">
@@ -8123,7 +8149,7 @@
         <v>25</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="X45" s="10"/>
     </row>
@@ -8159,28 +8185,28 @@
     </row>
     <row r="49" spans="2:24">
       <c r="B49" s="17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="H49" s="17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="N49" s="17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="T49" s="17" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="U49" s="18"/>
       <c r="V49" s="18"/>
@@ -8257,47 +8283,47 @@
     </row>
     <row r="52" spans="2:24">
       <c r="B52" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F52" s="14"/>
       <c r="H52" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L52" s="14"/>
       <c r="N52" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="R52" s="14"/>
       <c r="T52" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="X52" s="14"/>
     </row>
@@ -8310,7 +8336,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F53" s="10"/>
       <c r="H53" s="10">
@@ -8321,7 +8347,7 @@
         <v>25</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L53" s="10"/>
       <c r="N53" s="10">
@@ -8332,7 +8358,7 @@
         <v>25</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="R53" s="10"/>
       <c r="T53" s="10">
@@ -8343,7 +8369,7 @@
         <v>25</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="X53" s="10"/>
     </row>
@@ -8356,7 +8382,7 @@
         <v>25</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F54" s="10"/>
       <c r="H54" s="10">
@@ -8367,7 +8393,7 @@
         <v>25</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="10">
@@ -8378,7 +8404,7 @@
         <v>25</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="R54" s="10"/>
       <c r="T54" s="10">
@@ -8389,7 +8415,7 @@
         <v>25</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="X54" s="10"/>
     </row>
@@ -8402,7 +8428,7 @@
         <v>25</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F55" s="10"/>
       <c r="H55" s="10">
@@ -8413,7 +8439,7 @@
         <v>25</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="10">
@@ -8424,7 +8450,7 @@
         <v>25</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="R55" s="10"/>
       <c r="T55" s="10">
@@ -8435,7 +8461,7 @@
         <v>25</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="X55" s="10"/>
     </row>
@@ -8448,7 +8474,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F56" s="10"/>
       <c r="H56" s="10">
@@ -8459,7 +8485,7 @@
         <v>25</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L56" s="10"/>
       <c r="N56" s="10">
@@ -8470,7 +8496,7 @@
         <v>25</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="R56" s="10"/>
       <c r="T56" s="10">
@@ -8481,7 +8507,7 @@
         <v>25</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="X56" s="10"/>
     </row>
@@ -8494,7 +8520,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F57" s="10"/>
       <c r="H57" s="10">
@@ -8505,7 +8531,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L57" s="10"/>
       <c r="N57" s="10">
@@ -8516,7 +8542,7 @@
         <v>25</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="R57" s="10"/>
       <c r="T57" s="10">
@@ -8527,7 +8553,7 @@
         <v>25</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="X57" s="10"/>
     </row>
@@ -8540,7 +8566,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F58" s="10"/>
       <c r="H58" s="10">
@@ -8551,7 +8577,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="10">
@@ -8562,7 +8588,7 @@
         <v>25</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="R58" s="10"/>
       <c r="T58" s="10">
@@ -8573,7 +8599,7 @@
         <v>25</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="X58" s="10"/>
     </row>
@@ -8586,7 +8612,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F59" s="10"/>
       <c r="H59" s="10">
@@ -8597,7 +8623,7 @@
         <v>25</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L59" s="10"/>
       <c r="N59" s="10">
@@ -8608,7 +8634,7 @@
         <v>25</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="R59" s="10"/>
       <c r="T59" s="10">
@@ -8619,7 +8645,7 @@
         <v>25</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="X59" s="10"/>
     </row>
@@ -8632,7 +8658,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F60" s="10"/>
       <c r="H60" s="10">
@@ -8643,7 +8669,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L60" s="10"/>
       <c r="N60" s="10">
@@ -8654,7 +8680,7 @@
         <v>25</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="R60" s="10"/>
       <c r="T60" s="10">
@@ -8665,7 +8691,7 @@
         <v>25</v>
       </c>
       <c r="W60" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="X60" s="10"/>
     </row>
@@ -8701,7 +8727,7 @@
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="19" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -8709,7 +8735,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
@@ -8770,7 +8796,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
@@ -8800,7 +8826,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
@@ -8830,7 +8856,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
@@ -8860,7 +8886,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
@@ -8890,7 +8916,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
@@ -8904,7 +8930,7 @@
         <v>25</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="10" t="s">
@@ -8920,7 +8946,7 @@
         <v>25</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
@@ -8934,7 +8960,7 @@
         <v>25</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="10" t="s">
@@ -8950,7 +8976,7 @@
         <v>25</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10" t="s">
@@ -8964,7 +8990,7 @@
         <v>25</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="10" t="s">
@@ -8980,7 +9006,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
@@ -8994,7 +9020,7 @@
         <v>25</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="10" t="s">
@@ -9010,7 +9036,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
@@ -9024,7 +9050,7 @@
         <v>25</v>
       </c>
       <c r="L76" s="24" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M76" s="24"/>
       <c r="N76" s="10" t="s">
@@ -9040,7 +9066,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
@@ -9054,7 +9080,7 @@
         <v>25</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M77" s="24"/>
       <c r="N77" s="10" t="s">
@@ -9070,7 +9096,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
@@ -9084,7 +9110,7 @@
         <v>25</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M78" s="24"/>
       <c r="N78" s="10" t="s">
@@ -9100,7 +9126,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
@@ -9114,7 +9140,7 @@
         <v>25</v>
       </c>
       <c r="L79" s="24" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M79" s="24"/>
       <c r="N79" s="10" t="s">
@@ -9130,7 +9156,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
@@ -9158,7 +9184,7 @@
         <v>25</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
@@ -9186,7 +9212,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
@@ -9214,7 +9240,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">

--- a/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
+++ b/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="482">
   <si>
     <t>文本RTC时钟显示</t>
   </si>
@@ -708,184 +708,196 @@
     <t>阀门启停时间设置</t>
   </si>
   <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>0x100A.bit0</t>
+  </si>
+  <si>
     <t>阀门1</t>
   </si>
   <si>
-    <t>0x100A.bit0</t>
-  </si>
-  <si>
     <t>0x10A6/0x10A7</t>
   </si>
   <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>0x100A.bit1</t>
+  </si>
+  <si>
     <t>阀门2</t>
   </si>
   <si>
-    <t>0x100A.bit1</t>
-  </si>
-  <si>
     <t>0x10A8/0x10A9</t>
   </si>
   <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>0x100A.bit2</t>
+  </si>
+  <si>
     <t>阀门3</t>
   </si>
   <si>
-    <t>0x100A.bit2</t>
-  </si>
-  <si>
     <t>0x10AA/0x10AB</t>
   </si>
   <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>0x100A.bit3</t>
+  </si>
+  <si>
     <t>阀门4</t>
   </si>
   <si>
-    <t>0x100A.bit3</t>
-  </si>
-  <si>
     <t>0x10AC/0x10AD</t>
   </si>
   <si>
+    <t>0x100A.bit4</t>
+  </si>
+  <si>
+    <t>气站工作时间段设置</t>
+  </si>
+  <si>
     <t>阀门5</t>
   </si>
   <si>
-    <t>0x100A.bit4</t>
-  </si>
-  <si>
-    <t>气站工作时间段设置</t>
-  </si>
-  <si>
     <t>0x10AE/0x10AF</t>
   </si>
   <si>
+    <t>0x100A.bit5</t>
+  </si>
+  <si>
     <t>阀门6</t>
   </si>
   <si>
-    <t>0x100A.bit5</t>
-  </si>
-  <si>
     <t>0x10B0/0x10B1</t>
   </si>
   <si>
+    <t>0x100A.bit6</t>
+  </si>
+  <si>
     <t>阀门7</t>
   </si>
   <si>
-    <t>0x100A.bit6</t>
-  </si>
-  <si>
     <t>0x10B2/0x10B3</t>
   </si>
   <si>
+    <t>0x100A.bit7</t>
+  </si>
+  <si>
+    <t>开始时间_H</t>
+  </si>
+  <si>
+    <t>0x10A0</t>
+  </si>
+  <si>
     <t>阀门8</t>
   </si>
   <si>
-    <t>0x100A.bit7</t>
-  </si>
-  <si>
-    <t>开始时间_H</t>
-  </si>
-  <si>
-    <t>0x10A0</t>
-  </si>
-  <si>
     <t>0x10B4/0x10B5</t>
   </si>
   <si>
+    <t>0x100A.bit8</t>
+  </si>
+  <si>
+    <t>开始时间_M</t>
+  </si>
+  <si>
+    <t>0x10A1</t>
+  </si>
+  <si>
     <t>阀门9</t>
   </si>
   <si>
-    <t>0x100A.bit8</t>
-  </si>
-  <si>
-    <t>开始时间_M</t>
-  </si>
-  <si>
-    <t>0x10A1</t>
-  </si>
-  <si>
     <t>0x10B6/0x10B7</t>
   </si>
   <si>
+    <t>0x100A.bit9</t>
+  </si>
+  <si>
+    <t>开始时间_S</t>
+  </si>
+  <si>
+    <t>0x10A2</t>
+  </si>
+  <si>
     <t>阀门10</t>
   </si>
   <si>
-    <t>0x100A.bit9</t>
-  </si>
-  <si>
-    <t>开始时间_S</t>
-  </si>
-  <si>
-    <t>0x10A2</t>
-  </si>
-  <si>
     <t>0x10B8/0x10B9</t>
   </si>
   <si>
+    <t>0x100A.bit10</t>
+  </si>
+  <si>
+    <t>结束时间_H</t>
+  </si>
+  <si>
+    <t>0x10A3</t>
+  </si>
+  <si>
     <t>阀门11</t>
   </si>
   <si>
-    <t>0x100A.bit10</t>
-  </si>
-  <si>
-    <t>结束时间_H</t>
-  </si>
-  <si>
-    <t>0x10A3</t>
-  </si>
-  <si>
     <t>0x10BA/0x10BB</t>
   </si>
   <si>
+    <t>0x100A.bit11</t>
+  </si>
+  <si>
+    <t>结束时间_M</t>
+  </si>
+  <si>
+    <t>0x10A4</t>
+  </si>
+  <si>
     <t>阀门12</t>
   </si>
   <si>
-    <t>0x100A.bit11</t>
-  </si>
-  <si>
-    <t>结束时间_M</t>
-  </si>
-  <si>
-    <t>0x10A4</t>
-  </si>
-  <si>
     <t>0x10BC/0x10BD</t>
   </si>
   <si>
+    <t>0x100A.bit12</t>
+  </si>
+  <si>
+    <t>结束时间_S</t>
+  </si>
+  <si>
+    <t>0x10A5</t>
+  </si>
+  <si>
     <t>阀门13</t>
   </si>
   <si>
-    <t>0x100A.bit12</t>
-  </si>
-  <si>
-    <t>结束时间_S</t>
-  </si>
-  <si>
-    <t>0x10A5</t>
-  </si>
-  <si>
     <t>0x10BE/0x10BF</t>
   </si>
   <si>
+    <t>0x100A.bit13</t>
+  </si>
+  <si>
     <t>阀门14</t>
   </si>
   <si>
-    <t>0x100A.bit13</t>
-  </si>
-  <si>
     <t>0x10C0/0x10C1</t>
   </si>
   <si>
+    <t>0x100A.bit14</t>
+  </si>
+  <si>
     <t>阀门15</t>
   </si>
   <si>
-    <t>0x100A.bit14</t>
-  </si>
-  <si>
     <t>0x10C2/0x10C3</t>
   </si>
   <si>
+    <t>0x100A.bit15</t>
+  </si>
+  <si>
     <t>阀门16</t>
-  </si>
-  <si>
-    <t>0x100A.bit15</t>
   </si>
   <si>
     <t>0x10C4/0x10C5</t>
@@ -1457,9 +1469,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1529,14 +1541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1544,6 +1549,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1581,6 +1601,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1597,14 +1625,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1614,30 +1634,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1652,7 +1649,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1793,31 +1805,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,25 +1841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,19 +1871,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,67 +1949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,6 +2281,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2310,24 +2331,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2347,22 +2364,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2377,7 +2389,7 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2389,130 +2401,130 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3324,8 +3336,8 @@
   <sheetPr/>
   <dimension ref="B2:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="H61" workbookViewId="0">
+      <selection activeCell="AB89" sqref="AB89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5648,137 +5660,137 @@
       <c r="J68" s="117"/>
       <c r="K68" s="117"/>
       <c r="Q68" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U68" s="11"/>
       <c r="V68" s="127"/>
       <c r="X68" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AB68" s="11"/>
     </row>
     <row r="69" spans="9:28">
       <c r="I69" s="116"/>
       <c r="Q69" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R69" s="11"/>
       <c r="S69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U69" s="11"/>
       <c r="V69" s="127"/>
       <c r="X69" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y69" s="11"/>
       <c r="Z69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AB69" s="11"/>
     </row>
     <row r="70" spans="9:28">
       <c r="I70" s="116"/>
       <c r="Q70" s="11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R70" s="11"/>
       <c r="S70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="U70" s="11"/>
       <c r="V70" s="127"/>
       <c r="X70" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y70" s="11"/>
       <c r="Z70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AB70" s="11"/>
     </row>
     <row r="71" spans="9:28">
       <c r="I71" s="116"/>
       <c r="Q71" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="R71" s="11"/>
       <c r="S71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="U71" s="11"/>
       <c r="V71" s="127"/>
       <c r="X71" s="11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AB71" s="11"/>
     </row>
     <row r="72" spans="9:28">
       <c r="I72" s="116"/>
       <c r="J72" s="118" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K72" s="119"/>
       <c r="L72" s="119"/>
       <c r="M72" s="119"/>
       <c r="N72" s="119"/>
       <c r="Q72" s="11" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="R72" s="11"/>
       <c r="S72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="U72" s="11"/>
       <c r="V72" s="127"/>
       <c r="X72" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA72" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AB72" s="11"/>
     </row>
@@ -5790,26 +5802,26 @@
       <c r="M73" s="119"/>
       <c r="N73" s="119"/>
       <c r="Q73" s="11" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="R73" s="11"/>
       <c r="S73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="127"/>
       <c r="X73" s="11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA73" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AB73" s="11"/>
     </row>
@@ -5827,248 +5839,248 @@
       </c>
       <c r="N74" s="84"/>
       <c r="Q74" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="R74" s="11"/>
       <c r="S74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="U74" s="10"/>
       <c r="V74" s="127"/>
       <c r="X74" s="11" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA74" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB74" s="11"/>
     </row>
     <row r="75" spans="9:28">
       <c r="I75" s="116"/>
       <c r="J75" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N75" s="11"/>
       <c r="Q75" s="11" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="U75" s="10"/>
       <c r="V75" s="127"/>
       <c r="X75" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA75" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AB75" s="11"/>
     </row>
     <row r="76" spans="9:28">
       <c r="I76" s="116"/>
       <c r="J76" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N76" s="11"/>
       <c r="Q76" s="11" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="R76" s="11"/>
       <c r="S76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="127"/>
       <c r="X76" s="11" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA76" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AB76" s="11"/>
     </row>
     <row r="77" spans="9:28">
       <c r="I77" s="116"/>
       <c r="J77" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N77" s="11"/>
       <c r="Q77" s="11" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="R77" s="11"/>
       <c r="S77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="U77" s="10"/>
       <c r="V77" s="127"/>
       <c r="X77" s="11" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA77" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB77" s="11"/>
     </row>
     <row r="78" spans="9:28">
       <c r="I78" s="116"/>
       <c r="J78" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N78" s="11"/>
       <c r="Q78" s="11" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="R78" s="11"/>
       <c r="S78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="127"/>
       <c r="X78" s="11" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA78" s="11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AB78" s="11"/>
     </row>
     <row r="79" spans="9:28">
       <c r="I79" s="116"/>
       <c r="J79" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="N79" s="11"/>
       <c r="Q79" s="11" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="R79" s="11"/>
       <c r="S79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="U79" s="10"/>
       <c r="V79" s="127"/>
       <c r="X79" s="11" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA79" s="11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AB79" s="11"/>
     </row>
     <row r="80" spans="9:28">
       <c r="I80" s="116"/>
       <c r="J80" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N80" s="11"/>
       <c r="Q80" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="R80" s="11"/>
       <c r="S80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="U80" s="10"/>
       <c r="V80" s="127"/>
       <c r="X80" s="11" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA80" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AB80" s="11"/>
     </row>
@@ -6080,26 +6092,26 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="Q81" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="R81" s="11"/>
       <c r="S81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="U81" s="10"/>
       <c r="V81" s="127"/>
       <c r="X81" s="11" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA81" s="11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AB81" s="11"/>
     </row>
@@ -6111,40 +6123,40 @@
       <c r="M82" s="121"/>
       <c r="N82" s="122"/>
       <c r="Q82" s="11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="R82" s="11"/>
       <c r="S82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="U82" s="10"/>
       <c r="V82" s="127"/>
       <c r="X82" s="11" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA82" s="11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AB82" s="11"/>
     </row>
     <row r="83" ht="15.15" spans="9:28">
       <c r="I83" s="116"/>
       <c r="Q83" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="R83" s="11"/>
       <c r="S83" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="U83" s="10"/>
       <c r="V83" s="127"/>
@@ -6551,7 +6563,7 @@
   <sheetPr/>
   <dimension ref="B2:X84"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
@@ -6559,28 +6571,28 @@
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="T2" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -6657,47 +6669,47 @@
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L5" s="14"/>
       <c r="N5" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="R5" s="14"/>
       <c r="T5" s="8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="X5" s="8"/>
     </row>
@@ -6710,7 +6722,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="10">
@@ -6721,7 +6733,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L6" s="10"/>
       <c r="N6" s="10">
@@ -6732,7 +6744,7 @@
         <v>25</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="R6" s="10"/>
       <c r="T6" s="10">
@@ -6743,7 +6755,7 @@
         <v>25</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="X6" s="10"/>
     </row>
@@ -6756,7 +6768,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10">
@@ -6767,7 +6779,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L7" s="10"/>
       <c r="N7" s="10">
@@ -6778,7 +6790,7 @@
         <v>25</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="R7" s="10"/>
       <c r="T7" s="10">
@@ -6789,7 +6801,7 @@
         <v>25</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="X7" s="10"/>
     </row>
@@ -6802,7 +6814,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F8" s="10"/>
       <c r="H8" s="10">
@@ -6813,7 +6825,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L8" s="10"/>
       <c r="N8" s="10">
@@ -6824,7 +6836,7 @@
         <v>25</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="R8" s="10"/>
       <c r="T8" s="10">
@@ -6835,7 +6847,7 @@
         <v>25</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="X8" s="10"/>
     </row>
@@ -6848,7 +6860,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F9" s="10"/>
       <c r="H9" s="10">
@@ -6859,7 +6871,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L9" s="10"/>
       <c r="N9" s="10">
@@ -6870,7 +6882,7 @@
         <v>25</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="R9" s="10"/>
       <c r="T9" s="10">
@@ -6881,7 +6893,7 @@
         <v>25</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="X9" s="10"/>
     </row>
@@ -6894,7 +6906,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10">
@@ -6905,7 +6917,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L10" s="10"/>
       <c r="N10" s="10">
@@ -6916,7 +6928,7 @@
         <v>25</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="R10" s="10"/>
       <c r="T10" s="10">
@@ -6927,7 +6939,7 @@
         <v>25</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="X10" s="10"/>
     </row>
@@ -6940,7 +6952,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="10">
@@ -6951,7 +6963,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L11" s="10"/>
       <c r="N11" s="10">
@@ -6962,7 +6974,7 @@
         <v>25</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="R11" s="10"/>
       <c r="T11" s="10">
@@ -6973,7 +6985,7 @@
         <v>25</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="X11" s="10"/>
     </row>
@@ -6986,7 +6998,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="10">
@@ -6997,7 +7009,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L12" s="10"/>
       <c r="N12" s="10">
@@ -7008,7 +7020,7 @@
         <v>25</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="R12" s="10"/>
       <c r="T12" s="10">
@@ -7019,7 +7031,7 @@
         <v>25</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X12" s="10"/>
     </row>
@@ -7032,7 +7044,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F13" s="10"/>
       <c r="H13" s="10">
@@ -7043,7 +7055,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L13" s="10"/>
       <c r="N13" s="10">
@@ -7054,7 +7066,7 @@
         <v>25</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="R13" s="10"/>
       <c r="T13" s="10">
@@ -7065,7 +7077,7 @@
         <v>25</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="X13" s="10"/>
     </row>
@@ -7101,28 +7113,28 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="12" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="H18" s="12" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="N18" s="12" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="T18" s="12" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
@@ -7199,47 +7211,47 @@
     </row>
     <row r="21" spans="2:24">
       <c r="B21" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F21" s="14"/>
       <c r="H21" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L21" s="14"/>
       <c r="N21" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="R21" s="14"/>
       <c r="T21" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="X21" s="14"/>
     </row>
@@ -7252,7 +7264,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F22" s="10"/>
       <c r="H22" s="10">
@@ -7263,7 +7275,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L22" s="10"/>
       <c r="N22" s="10">
@@ -7274,7 +7286,7 @@
         <v>25</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="R22" s="10"/>
       <c r="T22" s="10">
@@ -7285,7 +7297,7 @@
         <v>25</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="X22" s="10"/>
     </row>
@@ -7298,7 +7310,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F23" s="10"/>
       <c r="H23" s="10">
@@ -7309,7 +7321,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L23" s="10"/>
       <c r="N23" s="10">
@@ -7320,7 +7332,7 @@
         <v>25</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="R23" s="10"/>
       <c r="T23" s="10">
@@ -7331,7 +7343,7 @@
         <v>25</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="X23" s="10"/>
     </row>
@@ -7344,7 +7356,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="10">
@@ -7355,7 +7367,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L24" s="10"/>
       <c r="N24" s="10">
@@ -7366,7 +7378,7 @@
         <v>25</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="R24" s="10"/>
       <c r="T24" s="10">
@@ -7377,7 +7389,7 @@
         <v>25</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="X24" s="10"/>
     </row>
@@ -7390,7 +7402,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F25" s="10"/>
       <c r="H25" s="10">
@@ -7401,7 +7413,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="10">
@@ -7412,7 +7424,7 @@
         <v>25</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R25" s="10"/>
       <c r="T25" s="10">
@@ -7423,7 +7435,7 @@
         <v>25</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="X25" s="10"/>
     </row>
@@ -7436,7 +7448,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F26" s="10"/>
       <c r="H26" s="10">
@@ -7447,7 +7459,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="10">
@@ -7458,7 +7470,7 @@
         <v>25</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="R26" s="10"/>
       <c r="T26" s="10">
@@ -7469,7 +7481,7 @@
         <v>25</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="X26" s="10"/>
     </row>
@@ -7482,7 +7494,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F27" s="10"/>
       <c r="H27" s="10">
@@ -7493,7 +7505,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="10">
@@ -7504,7 +7516,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="R27" s="10"/>
       <c r="T27" s="10">
@@ -7515,7 +7527,7 @@
         <v>25</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="X27" s="10"/>
     </row>
@@ -7528,7 +7540,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F28" s="10"/>
       <c r="H28" s="10">
@@ -7539,7 +7551,7 @@
         <v>25</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="10">
@@ -7550,7 +7562,7 @@
         <v>25</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="R28" s="10"/>
       <c r="T28" s="10">
@@ -7561,7 +7573,7 @@
         <v>25</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="X28" s="10"/>
     </row>
@@ -7574,7 +7586,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F29" s="10"/>
       <c r="H29" s="10">
@@ -7585,7 +7597,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L29" s="10"/>
       <c r="N29" s="10">
@@ -7596,7 +7608,7 @@
         <v>25</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="R29" s="10"/>
       <c r="T29" s="10">
@@ -7607,7 +7619,7 @@
         <v>25</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="X29" s="10"/>
     </row>
@@ -7643,28 +7655,28 @@
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="15" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="H34" s="15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="N34" s="15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="T34" s="15" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -7741,47 +7753,47 @@
     </row>
     <row r="37" spans="2:24">
       <c r="B37" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F37" s="14"/>
       <c r="H37" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L37" s="14"/>
       <c r="N37" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="R37" s="14"/>
       <c r="T37" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="X37" s="14"/>
     </row>
@@ -7794,7 +7806,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F38" s="10"/>
       <c r="H38" s="10">
@@ -7805,7 +7817,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L38" s="10"/>
       <c r="N38" s="10">
@@ -7816,7 +7828,7 @@
         <v>25</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="R38" s="10"/>
       <c r="T38" s="10">
@@ -7827,7 +7839,7 @@
         <v>25</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="X38" s="10"/>
     </row>
@@ -7840,7 +7852,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F39" s="10"/>
       <c r="H39" s="10">
@@ -7851,7 +7863,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L39" s="10"/>
       <c r="N39" s="10">
@@ -7862,7 +7874,7 @@
         <v>25</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="R39" s="10"/>
       <c r="T39" s="10">
@@ -7873,7 +7885,7 @@
         <v>25</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="X39" s="10"/>
     </row>
@@ -7886,7 +7898,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="10">
@@ -7897,7 +7909,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L40" s="10"/>
       <c r="N40" s="10">
@@ -7908,7 +7920,7 @@
         <v>25</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R40" s="10"/>
       <c r="T40" s="10">
@@ -7919,7 +7931,7 @@
         <v>25</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="X40" s="10"/>
     </row>
@@ -7932,7 +7944,7 @@
         <v>25</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F41" s="10"/>
       <c r="H41" s="10">
@@ -7943,7 +7955,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L41" s="10"/>
       <c r="N41" s="10">
@@ -7954,7 +7966,7 @@
         <v>25</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="R41" s="10"/>
       <c r="T41" s="10">
@@ -7965,7 +7977,7 @@
         <v>25</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="X41" s="10"/>
     </row>
@@ -7978,7 +7990,7 @@
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F42" s="10"/>
       <c r="H42" s="10">
@@ -7989,7 +8001,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L42" s="10"/>
       <c r="N42" s="10">
@@ -8000,7 +8012,7 @@
         <v>25</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="R42" s="10"/>
       <c r="T42" s="10">
@@ -8011,7 +8023,7 @@
         <v>25</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="X42" s="10"/>
     </row>
@@ -8024,7 +8036,7 @@
         <v>25</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F43" s="10"/>
       <c r="H43" s="10">
@@ -8035,7 +8047,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L43" s="10"/>
       <c r="N43" s="10">
@@ -8046,7 +8058,7 @@
         <v>25</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="R43" s="10"/>
       <c r="T43" s="10">
@@ -8057,7 +8069,7 @@
         <v>25</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="X43" s="10"/>
     </row>
@@ -8070,7 +8082,7 @@
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F44" s="10"/>
       <c r="H44" s="10">
@@ -8081,7 +8093,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L44" s="10"/>
       <c r="N44" s="10">
@@ -8092,7 +8104,7 @@
         <v>25</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="R44" s="10"/>
       <c r="T44" s="10">
@@ -8103,7 +8115,7 @@
         <v>25</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="X44" s="10"/>
     </row>
@@ -8116,7 +8128,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F45" s="10"/>
       <c r="H45" s="10">
@@ -8127,7 +8139,7 @@
         <v>25</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L45" s="10"/>
       <c r="N45" s="10">
@@ -8138,7 +8150,7 @@
         <v>25</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="R45" s="10"/>
       <c r="T45" s="10">
@@ -8149,7 +8161,7 @@
         <v>25</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="X45" s="10"/>
     </row>
@@ -8185,28 +8197,28 @@
     </row>
     <row r="49" spans="2:24">
       <c r="B49" s="17" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="H49" s="17" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="N49" s="17" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="T49" s="17" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="U49" s="18"/>
       <c r="V49" s="18"/>
@@ -8283,47 +8295,47 @@
     </row>
     <row r="52" spans="2:24">
       <c r="B52" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F52" s="14"/>
       <c r="H52" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L52" s="14"/>
       <c r="N52" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="R52" s="14"/>
       <c r="T52" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="X52" s="14"/>
     </row>
@@ -8336,7 +8348,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F53" s="10"/>
       <c r="H53" s="10">
@@ -8347,7 +8359,7 @@
         <v>25</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L53" s="10"/>
       <c r="N53" s="10">
@@ -8358,7 +8370,7 @@
         <v>25</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="R53" s="10"/>
       <c r="T53" s="10">
@@ -8369,7 +8381,7 @@
         <v>25</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="X53" s="10"/>
     </row>
@@ -8382,7 +8394,7 @@
         <v>25</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F54" s="10"/>
       <c r="H54" s="10">
@@ -8393,7 +8405,7 @@
         <v>25</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="10">
@@ -8404,7 +8416,7 @@
         <v>25</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="R54" s="10"/>
       <c r="T54" s="10">
@@ -8415,7 +8427,7 @@
         <v>25</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="X54" s="10"/>
     </row>
@@ -8428,7 +8440,7 @@
         <v>25</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F55" s="10"/>
       <c r="H55" s="10">
@@ -8439,7 +8451,7 @@
         <v>25</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="10">
@@ -8450,7 +8462,7 @@
         <v>25</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R55" s="10"/>
       <c r="T55" s="10">
@@ -8461,7 +8473,7 @@
         <v>25</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="X55" s="10"/>
     </row>
@@ -8474,7 +8486,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F56" s="10"/>
       <c r="H56" s="10">
@@ -8485,7 +8497,7 @@
         <v>25</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L56" s="10"/>
       <c r="N56" s="10">
@@ -8496,7 +8508,7 @@
         <v>25</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="R56" s="10"/>
       <c r="T56" s="10">
@@ -8507,7 +8519,7 @@
         <v>25</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="X56" s="10"/>
     </row>
@@ -8520,7 +8532,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F57" s="10"/>
       <c r="H57" s="10">
@@ -8531,7 +8543,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L57" s="10"/>
       <c r="N57" s="10">
@@ -8542,7 +8554,7 @@
         <v>25</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="R57" s="10"/>
       <c r="T57" s="10">
@@ -8553,7 +8565,7 @@
         <v>25</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="X57" s="10"/>
     </row>
@@ -8566,7 +8578,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F58" s="10"/>
       <c r="H58" s="10">
@@ -8577,7 +8589,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="10">
@@ -8588,7 +8600,7 @@
         <v>25</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="R58" s="10"/>
       <c r="T58" s="10">
@@ -8599,7 +8611,7 @@
         <v>25</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="X58" s="10"/>
     </row>
@@ -8612,7 +8624,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F59" s="10"/>
       <c r="H59" s="10">
@@ -8623,7 +8635,7 @@
         <v>25</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L59" s="10"/>
       <c r="N59" s="10">
@@ -8634,7 +8646,7 @@
         <v>25</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="R59" s="10"/>
       <c r="T59" s="10">
@@ -8645,7 +8657,7 @@
         <v>25</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="X59" s="10"/>
     </row>
@@ -8658,7 +8670,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F60" s="10"/>
       <c r="H60" s="10">
@@ -8669,7 +8681,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L60" s="10"/>
       <c r="N60" s="10">
@@ -8680,7 +8692,7 @@
         <v>25</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="R60" s="10"/>
       <c r="T60" s="10">
@@ -8691,7 +8703,7 @@
         <v>25</v>
       </c>
       <c r="W60" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="X60" s="10"/>
     </row>
@@ -8727,7 +8739,7 @@
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="19" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -8735,7 +8747,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
@@ -8796,7 +8808,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
@@ -8826,7 +8838,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
@@ -8856,7 +8868,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
@@ -8886,7 +8898,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
@@ -8916,7 +8928,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
@@ -8930,7 +8942,7 @@
         <v>25</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="10" t="s">
@@ -8946,7 +8958,7 @@
         <v>25</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
@@ -8960,7 +8972,7 @@
         <v>25</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="10" t="s">
@@ -8976,7 +8988,7 @@
         <v>25</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10" t="s">
@@ -8990,7 +9002,7 @@
         <v>25</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="10" t="s">
@@ -9006,7 +9018,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
@@ -9020,7 +9032,7 @@
         <v>25</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="10" t="s">
@@ -9036,7 +9048,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
@@ -9050,7 +9062,7 @@
         <v>25</v>
       </c>
       <c r="L76" s="24" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M76" s="24"/>
       <c r="N76" s="10" t="s">
@@ -9066,7 +9078,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
@@ -9080,7 +9092,7 @@
         <v>25</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M77" s="24"/>
       <c r="N77" s="10" t="s">
@@ -9096,7 +9108,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
@@ -9110,7 +9122,7 @@
         <v>25</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M78" s="24"/>
       <c r="N78" s="10" t="s">
@@ -9126,7 +9138,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
@@ -9140,7 +9152,7 @@
         <v>25</v>
       </c>
       <c r="L79" s="24" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M79" s="24"/>
       <c r="N79" s="10" t="s">
@@ -9156,7 +9168,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
@@ -9184,7 +9196,7 @@
         <v>25</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
@@ -9212,7 +9224,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
@@ -9240,7 +9252,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">

--- a/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
+++ b/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="484">
   <si>
     <t>文本RTC时钟显示</t>
   </si>
@@ -486,7 +486,7 @@
     <t>阈值设定2</t>
   </si>
   <si>
-    <t>重置组态</t>
+    <t>重置组态界面</t>
   </si>
   <si>
     <t>模式</t>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>1.2Mpa</t>
+  </si>
+  <si>
+    <t>组态确按钮</t>
+  </si>
+  <si>
+    <t>0x100C</t>
   </si>
   <si>
     <t>汽化器出口压力泄压停止值</t>
@@ -1471,8 +1477,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1540,8 +1546,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1554,7 +1576,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1577,9 +1606,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,26 +1622,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1632,14 +1653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1649,14 +1662,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,7 +1670,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1805,19 +1811,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,31 +1847,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,43 +1901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,7 +1919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,13 +1949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,7 +1961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,15 +2287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2305,6 +2302,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2316,35 +2331,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2378,6 +2364,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2386,10 +2392,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2401,130 +2407,130 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3336,8 +3342,8 @@
   <sheetPr/>
   <dimension ref="B2:AB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H61" workbookViewId="0">
-      <selection activeCell="AB89" sqref="AB89"/>
+    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+      <selection activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4967,52 +4973,58 @@
         <v>5</v>
       </c>
       <c r="V45" s="84"/>
-      <c r="X45" s="10"/>
+      <c r="X45" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
+      <c r="Z45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB45" s="11"/>
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="25"/>
       <c r="C46" s="53"/>
       <c r="D46" s="54"/>
       <c r="E46" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S46" s="11"/>
       <c r="T46" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="V46" s="11"/>
       <c r="X46" s="100"/>
@@ -5024,45 +5036,45 @@
     <row r="47" spans="2:22">
       <c r="B47" s="25"/>
       <c r="C47" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10" t="s">
         <v>8</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V47" s="10"/>
     </row>
@@ -5071,29 +5083,29 @@
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="25"/>
@@ -5106,7 +5118,7 @@
     <row r="49" spans="2:20">
       <c r="B49" s="25"/>
       <c r="C49" s="55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="2" t="s">
@@ -5117,22 +5129,22 @@
         <v>19</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="25"/>
@@ -5145,14 +5157,14 @@
       <c r="C50" s="57"/>
       <c r="D50" s="58"/>
       <c r="E50" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
@@ -5174,7 +5186,7 @@
     <row r="51" spans="2:26">
       <c r="B51" s="25"/>
       <c r="C51" s="59" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D51" s="59"/>
       <c r="E51" s="59" t="s">
@@ -5185,11 +5197,11 @@
         <v>19</v>
       </c>
       <c r="H51" s="59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I51" s="59"/>
       <c r="J51" s="59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -5198,7 +5210,7 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="107" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5221,11 +5233,11 @@
         <v>19</v>
       </c>
       <c r="H52" s="59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I52" s="59"/>
       <c r="J52" s="59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -5247,18 +5259,18 @@
     <row r="53" spans="2:26">
       <c r="B53" s="25"/>
       <c r="C53" s="20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20" t="s">
@@ -5266,7 +5278,7 @@
       </c>
       <c r="K53" s="25"/>
       <c r="L53" s="81" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M53" s="82"/>
       <c r="N53" s="82"/>
@@ -5294,18 +5306,18 @@
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L54" s="82"/>
       <c r="M54" s="82"/>
@@ -5313,14 +5325,14 @@
       <c r="O54" s="82"/>
       <c r="P54" s="82"/>
       <c r="R54" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S54" s="11"/>
       <c r="T54" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="25"/>
@@ -5352,14 +5364,14 @@
       </c>
       <c r="P55" s="84"/>
       <c r="R55" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S55" s="11"/>
       <c r="T55" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="V55" s="11"/>
       <c r="W55" s="25"/>
@@ -5377,25 +5389,25 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="L56" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P56" s="11"/>
       <c r="R56" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S56" s="11"/>
       <c r="T56" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="25"/>
@@ -5418,14 +5430,14 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="R57" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="V57" s="11"/>
       <c r="W57" s="25"/>
@@ -5448,14 +5460,14 @@
       <c r="O58" s="86"/>
       <c r="P58" s="87"/>
       <c r="R58" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S58" s="11"/>
       <c r="T58" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="V58" s="11"/>
       <c r="W58" s="25"/>
@@ -5473,14 +5485,14 @@
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
       <c r="R59" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="V59" s="11"/>
       <c r="W59" s="25"/>
@@ -5501,14 +5513,14 @@
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
       <c r="R60" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S60" s="11"/>
       <c r="T60" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="V60" s="11"/>
     </row>
@@ -5520,14 +5532,14 @@
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
       <c r="R61" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S61" s="11"/>
       <c r="T61" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U61" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V61" s="11"/>
     </row>
@@ -5569,7 +5581,7 @@
       <c r="U64" s="89"/>
       <c r="V64" s="111"/>
       <c r="X64" s="98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y64" s="99"/>
       <c r="Z64" s="99"/>
@@ -5581,12 +5593,12 @@
       <c r="C65" s="25"/>
       <c r="I65" s="116"/>
       <c r="J65" s="117" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K65" s="117"/>
       <c r="P65" s="25"/>
       <c r="Q65" s="125" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R65" s="126"/>
       <c r="S65" s="126"/>
@@ -5644,14 +5656,14 @@
       <c r="U67" s="84"/>
       <c r="V67" s="127"/>
       <c r="X67" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y67" s="11"/>
       <c r="Z67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA67" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AB67" s="11"/>
     </row>
@@ -5660,137 +5672,137 @@
       <c r="J68" s="117"/>
       <c r="K68" s="117"/>
       <c r="Q68" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U68" s="11"/>
       <c r="V68" s="127"/>
       <c r="X68" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AB68" s="11"/>
     </row>
     <row r="69" spans="9:28">
       <c r="I69" s="116"/>
       <c r="Q69" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R69" s="11"/>
       <c r="S69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="U69" s="11"/>
       <c r="V69" s="127"/>
       <c r="X69" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y69" s="11"/>
       <c r="Z69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AB69" s="11"/>
     </row>
     <row r="70" spans="9:28">
       <c r="I70" s="116"/>
       <c r="Q70" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R70" s="11"/>
       <c r="S70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U70" s="11"/>
       <c r="V70" s="127"/>
       <c r="X70" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Y70" s="11"/>
       <c r="Z70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AB70" s="11"/>
     </row>
     <row r="71" spans="9:28">
       <c r="I71" s="116"/>
       <c r="Q71" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R71" s="11"/>
       <c r="S71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="U71" s="11"/>
       <c r="V71" s="127"/>
       <c r="X71" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AB71" s="11"/>
     </row>
     <row r="72" spans="9:28">
       <c r="I72" s="116"/>
       <c r="J72" s="118" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K72" s="119"/>
       <c r="L72" s="119"/>
       <c r="M72" s="119"/>
       <c r="N72" s="119"/>
       <c r="Q72" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R72" s="11"/>
       <c r="S72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="U72" s="11"/>
       <c r="V72" s="127"/>
       <c r="X72" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA72" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AB72" s="11"/>
     </row>
@@ -5802,26 +5814,26 @@
       <c r="M73" s="119"/>
       <c r="N73" s="119"/>
       <c r="Q73" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R73" s="11"/>
       <c r="S73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="127"/>
       <c r="X73" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA73" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AB73" s="11"/>
     </row>
@@ -5839,248 +5851,248 @@
       </c>
       <c r="N74" s="84"/>
       <c r="Q74" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R74" s="11"/>
       <c r="S74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U74" s="10"/>
       <c r="V74" s="127"/>
       <c r="X74" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA74" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AB74" s="11"/>
     </row>
     <row r="75" spans="9:28">
       <c r="I75" s="116"/>
       <c r="J75" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N75" s="11"/>
       <c r="Q75" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U75" s="10"/>
       <c r="V75" s="127"/>
       <c r="X75" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA75" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AB75" s="11"/>
     </row>
     <row r="76" spans="9:28">
       <c r="I76" s="116"/>
       <c r="J76" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N76" s="11"/>
       <c r="Q76" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R76" s="11"/>
       <c r="S76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="127"/>
       <c r="X76" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA76" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AB76" s="11"/>
     </row>
     <row r="77" spans="9:28">
       <c r="I77" s="116"/>
       <c r="J77" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N77" s="11"/>
       <c r="Q77" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R77" s="11"/>
       <c r="S77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="U77" s="10"/>
       <c r="V77" s="127"/>
       <c r="X77" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA77" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB77" s="11"/>
     </row>
     <row r="78" spans="9:28">
       <c r="I78" s="116"/>
       <c r="J78" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N78" s="11"/>
       <c r="Q78" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R78" s="11"/>
       <c r="S78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="127"/>
       <c r="X78" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA78" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AB78" s="11"/>
     </row>
     <row r="79" spans="9:28">
       <c r="I79" s="116"/>
       <c r="J79" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N79" s="11"/>
       <c r="Q79" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R79" s="11"/>
       <c r="S79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="U79" s="10"/>
       <c r="V79" s="127"/>
       <c r="X79" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA79" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AB79" s="11"/>
     </row>
     <row r="80" spans="9:28">
       <c r="I80" s="116"/>
       <c r="J80" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N80" s="11"/>
       <c r="Q80" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R80" s="11"/>
       <c r="S80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U80" s="10"/>
       <c r="V80" s="127"/>
       <c r="X80" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA80" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AB80" s="11"/>
     </row>
@@ -6092,26 +6104,26 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="Q81" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R81" s="11"/>
       <c r="S81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U81" s="10"/>
       <c r="V81" s="127"/>
       <c r="X81" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA81" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AB81" s="11"/>
     </row>
@@ -6123,40 +6135,40 @@
       <c r="M82" s="121"/>
       <c r="N82" s="122"/>
       <c r="Q82" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R82" s="11"/>
       <c r="S82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="U82" s="10"/>
       <c r="V82" s="127"/>
       <c r="X82" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA82" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AB82" s="11"/>
     </row>
     <row r="83" ht="15.15" spans="9:28">
       <c r="I83" s="116"/>
       <c r="Q83" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R83" s="11"/>
       <c r="S83" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="U83" s="10"/>
       <c r="V83" s="127"/>
@@ -6571,28 +6583,28 @@
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="T2" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -6669,47 +6681,47 @@
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L5" s="14"/>
       <c r="N5" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="R5" s="14"/>
       <c r="T5" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="X5" s="8"/>
     </row>
@@ -6722,7 +6734,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="10">
@@ -6733,7 +6745,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L6" s="10"/>
       <c r="N6" s="10">
@@ -6744,7 +6756,7 @@
         <v>25</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R6" s="10"/>
       <c r="T6" s="10">
@@ -6755,7 +6767,7 @@
         <v>25</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="X6" s="10"/>
     </row>
@@ -6768,7 +6780,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10">
@@ -6779,7 +6791,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L7" s="10"/>
       <c r="N7" s="10">
@@ -6790,7 +6802,7 @@
         <v>25</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R7" s="10"/>
       <c r="T7" s="10">
@@ -6801,7 +6813,7 @@
         <v>25</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="X7" s="10"/>
     </row>
@@ -6814,7 +6826,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F8" s="10"/>
       <c r="H8" s="10">
@@ -6825,7 +6837,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L8" s="10"/>
       <c r="N8" s="10">
@@ -6836,7 +6848,7 @@
         <v>25</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="R8" s="10"/>
       <c r="T8" s="10">
@@ -6847,7 +6859,7 @@
         <v>25</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X8" s="10"/>
     </row>
@@ -6860,7 +6872,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F9" s="10"/>
       <c r="H9" s="10">
@@ -6871,7 +6883,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L9" s="10"/>
       <c r="N9" s="10">
@@ -6882,7 +6894,7 @@
         <v>25</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="R9" s="10"/>
       <c r="T9" s="10">
@@ -6893,7 +6905,7 @@
         <v>25</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="X9" s="10"/>
     </row>
@@ -6906,7 +6918,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10">
@@ -6917,7 +6929,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L10" s="10"/>
       <c r="N10" s="10">
@@ -6928,7 +6940,7 @@
         <v>25</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="R10" s="10"/>
       <c r="T10" s="10">
@@ -6939,7 +6951,7 @@
         <v>25</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="X10" s="10"/>
     </row>
@@ -6952,7 +6964,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="10">
@@ -6963,7 +6975,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L11" s="10"/>
       <c r="N11" s="10">
@@ -6974,7 +6986,7 @@
         <v>25</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="R11" s="10"/>
       <c r="T11" s="10">
@@ -6985,7 +6997,7 @@
         <v>25</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="X11" s="10"/>
     </row>
@@ -6998,7 +7010,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="10">
@@ -7009,7 +7021,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L12" s="10"/>
       <c r="N12" s="10">
@@ -7020,7 +7032,7 @@
         <v>25</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R12" s="10"/>
       <c r="T12" s="10">
@@ -7031,7 +7043,7 @@
         <v>25</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X12" s="10"/>
     </row>
@@ -7044,7 +7056,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F13" s="10"/>
       <c r="H13" s="10">
@@ -7055,7 +7067,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L13" s="10"/>
       <c r="N13" s="10">
@@ -7066,7 +7078,7 @@
         <v>25</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R13" s="10"/>
       <c r="T13" s="10">
@@ -7077,7 +7089,7 @@
         <v>25</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="X13" s="10"/>
     </row>
@@ -7113,28 +7125,28 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="H18" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="N18" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="T18" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
@@ -7211,47 +7223,47 @@
     </row>
     <row r="21" spans="2:24">
       <c r="B21" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F21" s="14"/>
       <c r="H21" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L21" s="14"/>
       <c r="N21" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="R21" s="14"/>
       <c r="T21" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="X21" s="14"/>
     </row>
@@ -7264,7 +7276,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F22" s="10"/>
       <c r="H22" s="10">
@@ -7275,7 +7287,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L22" s="10"/>
       <c r="N22" s="10">
@@ -7286,7 +7298,7 @@
         <v>25</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="R22" s="10"/>
       <c r="T22" s="10">
@@ -7297,7 +7309,7 @@
         <v>25</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="X22" s="10"/>
     </row>
@@ -7310,7 +7322,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F23" s="10"/>
       <c r="H23" s="10">
@@ -7321,7 +7333,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L23" s="10"/>
       <c r="N23" s="10">
@@ -7332,7 +7344,7 @@
         <v>25</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="R23" s="10"/>
       <c r="T23" s="10">
@@ -7343,7 +7355,7 @@
         <v>25</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="X23" s="10"/>
     </row>
@@ -7356,7 +7368,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="10">
@@ -7367,7 +7379,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L24" s="10"/>
       <c r="N24" s="10">
@@ -7378,7 +7390,7 @@
         <v>25</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="R24" s="10"/>
       <c r="T24" s="10">
@@ -7389,7 +7401,7 @@
         <v>25</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="X24" s="10"/>
     </row>
@@ -7402,7 +7414,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F25" s="10"/>
       <c r="H25" s="10">
@@ -7413,7 +7425,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="10">
@@ -7424,7 +7436,7 @@
         <v>25</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R25" s="10"/>
       <c r="T25" s="10">
@@ -7435,7 +7447,7 @@
         <v>25</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="X25" s="10"/>
     </row>
@@ -7448,7 +7460,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F26" s="10"/>
       <c r="H26" s="10">
@@ -7459,7 +7471,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="10">
@@ -7470,7 +7482,7 @@
         <v>25</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R26" s="10"/>
       <c r="T26" s="10">
@@ -7481,7 +7493,7 @@
         <v>25</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="X26" s="10"/>
     </row>
@@ -7494,7 +7506,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F27" s="10"/>
       <c r="H27" s="10">
@@ -7505,7 +7517,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="10">
@@ -7516,7 +7528,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="R27" s="10"/>
       <c r="T27" s="10">
@@ -7527,7 +7539,7 @@
         <v>25</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X27" s="10"/>
     </row>
@@ -7540,7 +7552,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F28" s="10"/>
       <c r="H28" s="10">
@@ -7551,7 +7563,7 @@
         <v>25</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="10">
@@ -7562,7 +7574,7 @@
         <v>25</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="R28" s="10"/>
       <c r="T28" s="10">
@@ -7573,7 +7585,7 @@
         <v>25</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="X28" s="10"/>
     </row>
@@ -7586,7 +7598,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F29" s="10"/>
       <c r="H29" s="10">
@@ -7597,7 +7609,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L29" s="10"/>
       <c r="N29" s="10">
@@ -7608,7 +7620,7 @@
         <v>25</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="R29" s="10"/>
       <c r="T29" s="10">
@@ -7619,7 +7631,7 @@
         <v>25</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="X29" s="10"/>
     </row>
@@ -7655,28 +7667,28 @@
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="H34" s="15" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="N34" s="15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="T34" s="15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -7753,47 +7765,47 @@
     </row>
     <row r="37" spans="2:24">
       <c r="B37" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F37" s="14"/>
       <c r="H37" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L37" s="14"/>
       <c r="N37" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="R37" s="14"/>
       <c r="T37" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X37" s="14"/>
     </row>
@@ -7806,7 +7818,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F38" s="10"/>
       <c r="H38" s="10">
@@ -7817,7 +7829,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L38" s="10"/>
       <c r="N38" s="10">
@@ -7828,7 +7840,7 @@
         <v>25</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="R38" s="10"/>
       <c r="T38" s="10">
@@ -7839,7 +7851,7 @@
         <v>25</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="X38" s="10"/>
     </row>
@@ -7852,7 +7864,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F39" s="10"/>
       <c r="H39" s="10">
@@ -7863,7 +7875,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L39" s="10"/>
       <c r="N39" s="10">
@@ -7874,7 +7886,7 @@
         <v>25</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="R39" s="10"/>
       <c r="T39" s="10">
@@ -7885,7 +7897,7 @@
         <v>25</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X39" s="10"/>
     </row>
@@ -7898,7 +7910,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="10">
@@ -7909,7 +7921,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L40" s="10"/>
       <c r="N40" s="10">
@@ -7920,7 +7932,7 @@
         <v>25</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="R40" s="10"/>
       <c r="T40" s="10">
@@ -7931,7 +7943,7 @@
         <v>25</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="X40" s="10"/>
     </row>
@@ -7944,7 +7956,7 @@
         <v>25</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F41" s="10"/>
       <c r="H41" s="10">
@@ -7955,7 +7967,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L41" s="10"/>
       <c r="N41" s="10">
@@ -7966,7 +7978,7 @@
         <v>25</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R41" s="10"/>
       <c r="T41" s="10">
@@ -7977,7 +7989,7 @@
         <v>25</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="X41" s="10"/>
     </row>
@@ -7990,7 +8002,7 @@
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F42" s="10"/>
       <c r="H42" s="10">
@@ -8001,7 +8013,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L42" s="10"/>
       <c r="N42" s="10">
@@ -8012,7 +8024,7 @@
         <v>25</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="R42" s="10"/>
       <c r="T42" s="10">
@@ -8023,7 +8035,7 @@
         <v>25</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="X42" s="10"/>
     </row>
@@ -8036,7 +8048,7 @@
         <v>25</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F43" s="10"/>
       <c r="H43" s="10">
@@ -8047,7 +8059,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L43" s="10"/>
       <c r="N43" s="10">
@@ -8058,7 +8070,7 @@
         <v>25</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="R43" s="10"/>
       <c r="T43" s="10">
@@ -8069,7 +8081,7 @@
         <v>25</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="X43" s="10"/>
     </row>
@@ -8082,7 +8094,7 @@
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F44" s="10"/>
       <c r="H44" s="10">
@@ -8093,7 +8105,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L44" s="10"/>
       <c r="N44" s="10">
@@ -8104,7 +8116,7 @@
         <v>25</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="R44" s="10"/>
       <c r="T44" s="10">
@@ -8115,7 +8127,7 @@
         <v>25</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="X44" s="10"/>
     </row>
@@ -8128,7 +8140,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F45" s="10"/>
       <c r="H45" s="10">
@@ -8139,7 +8151,7 @@
         <v>25</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L45" s="10"/>
       <c r="N45" s="10">
@@ -8150,7 +8162,7 @@
         <v>25</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="R45" s="10"/>
       <c r="T45" s="10">
@@ -8161,7 +8173,7 @@
         <v>25</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="X45" s="10"/>
     </row>
@@ -8197,28 +8209,28 @@
     </row>
     <row r="49" spans="2:24">
       <c r="B49" s="17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="H49" s="17" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="N49" s="17" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="T49" s="17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="U49" s="18"/>
       <c r="V49" s="18"/>
@@ -8295,47 +8307,47 @@
     </row>
     <row r="52" spans="2:24">
       <c r="B52" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F52" s="14"/>
       <c r="H52" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L52" s="14"/>
       <c r="N52" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="R52" s="14"/>
       <c r="T52" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="X52" s="14"/>
     </row>
@@ -8348,7 +8360,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F53" s="10"/>
       <c r="H53" s="10">
@@ -8359,7 +8371,7 @@
         <v>25</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L53" s="10"/>
       <c r="N53" s="10">
@@ -8370,7 +8382,7 @@
         <v>25</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="R53" s="10"/>
       <c r="T53" s="10">
@@ -8381,7 +8393,7 @@
         <v>25</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="X53" s="10"/>
     </row>
@@ -8394,7 +8406,7 @@
         <v>25</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F54" s="10"/>
       <c r="H54" s="10">
@@ -8405,7 +8417,7 @@
         <v>25</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="10">
@@ -8416,7 +8428,7 @@
         <v>25</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="R54" s="10"/>
       <c r="T54" s="10">
@@ -8427,7 +8439,7 @@
         <v>25</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="X54" s="10"/>
     </row>
@@ -8440,7 +8452,7 @@
         <v>25</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F55" s="10"/>
       <c r="H55" s="10">
@@ -8451,7 +8463,7 @@
         <v>25</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="10">
@@ -8462,7 +8474,7 @@
         <v>25</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="R55" s="10"/>
       <c r="T55" s="10">
@@ -8473,7 +8485,7 @@
         <v>25</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="X55" s="10"/>
     </row>
@@ -8486,7 +8498,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F56" s="10"/>
       <c r="H56" s="10">
@@ -8497,7 +8509,7 @@
         <v>25</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L56" s="10"/>
       <c r="N56" s="10">
@@ -8508,7 +8520,7 @@
         <v>25</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="R56" s="10"/>
       <c r="T56" s="10">
@@ -8519,7 +8531,7 @@
         <v>25</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="X56" s="10"/>
     </row>
@@ -8532,7 +8544,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F57" s="10"/>
       <c r="H57" s="10">
@@ -8543,7 +8555,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L57" s="10"/>
       <c r="N57" s="10">
@@ -8554,7 +8566,7 @@
         <v>25</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="R57" s="10"/>
       <c r="T57" s="10">
@@ -8565,7 +8577,7 @@
         <v>25</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="X57" s="10"/>
     </row>
@@ -8578,7 +8590,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F58" s="10"/>
       <c r="H58" s="10">
@@ -8589,7 +8601,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="10">
@@ -8600,7 +8612,7 @@
         <v>25</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="R58" s="10"/>
       <c r="T58" s="10">
@@ -8611,7 +8623,7 @@
         <v>25</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="X58" s="10"/>
     </row>
@@ -8624,7 +8636,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F59" s="10"/>
       <c r="H59" s="10">
@@ -8635,7 +8647,7 @@
         <v>25</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L59" s="10"/>
       <c r="N59" s="10">
@@ -8646,7 +8658,7 @@
         <v>25</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="R59" s="10"/>
       <c r="T59" s="10">
@@ -8657,7 +8669,7 @@
         <v>25</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="X59" s="10"/>
     </row>
@@ -8670,7 +8682,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F60" s="10"/>
       <c r="H60" s="10">
@@ -8681,7 +8693,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L60" s="10"/>
       <c r="N60" s="10">
@@ -8692,7 +8704,7 @@
         <v>25</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="R60" s="10"/>
       <c r="T60" s="10">
@@ -8703,7 +8715,7 @@
         <v>25</v>
       </c>
       <c r="W60" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="X60" s="10"/>
     </row>
@@ -8739,7 +8751,7 @@
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="19" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -8747,7 +8759,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
@@ -8808,7 +8820,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
@@ -8838,7 +8850,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
@@ -8868,7 +8880,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
@@ -8898,7 +8910,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
@@ -8928,7 +8940,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
@@ -8942,7 +8954,7 @@
         <v>25</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="10" t="s">
@@ -8958,7 +8970,7 @@
         <v>25</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
@@ -8972,7 +8984,7 @@
         <v>25</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M73" s="24"/>
       <c r="N73" s="10" t="s">
@@ -8988,7 +9000,7 @@
         <v>25</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10" t="s">
@@ -9002,7 +9014,7 @@
         <v>25</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="10" t="s">
@@ -9018,7 +9030,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
@@ -9032,7 +9044,7 @@
         <v>25</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="10" t="s">
@@ -9048,7 +9060,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
@@ -9062,7 +9074,7 @@
         <v>25</v>
       </c>
       <c r="L76" s="24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M76" s="24"/>
       <c r="N76" s="10" t="s">
@@ -9078,7 +9090,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
@@ -9092,7 +9104,7 @@
         <v>25</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M77" s="24"/>
       <c r="N77" s="10" t="s">
@@ -9108,7 +9120,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
@@ -9122,7 +9134,7 @@
         <v>25</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M78" s="24"/>
       <c r="N78" s="10" t="s">
@@ -9138,7 +9150,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
@@ -9152,7 +9164,7 @@
         <v>25</v>
       </c>
       <c r="L79" s="24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M79" s="24"/>
       <c r="N79" s="10" t="s">
@@ -9168,7 +9180,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
@@ -9196,7 +9208,7 @@
         <v>25</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
@@ -9224,7 +9236,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
@@ -9252,7 +9264,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">

--- a/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
+++ b/Document/迪文屏幕RAM变量分配表（大棚控制系统）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="500">
   <si>
     <t>文本RTC时钟显示</t>
   </si>
@@ -504,7 +504,7 @@
     <t>2.0Mpa</t>
   </si>
   <si>
-    <t>压力传感器界面</t>
+    <t>模拟量传感器界面</t>
   </si>
   <si>
     <t>报警界面</t>
@@ -525,7 +525,19 @@
     <t>0x100B</t>
   </si>
   <si>
-    <t>汽化器出口压力启动值</t>
+    <t>储槽补压启动值</t>
+  </si>
+  <si>
+    <t>1.3Mpa</t>
+  </si>
+  <si>
+    <t>组态确按钮</t>
+  </si>
+  <si>
+    <t>0x100C</t>
+  </si>
+  <si>
+    <t>汽化器补压停止值</t>
   </si>
   <si>
     <t>0x104C</t>
@@ -534,379 +546,439 @@
     <t>1.2Mpa</t>
   </si>
   <si>
-    <t>组态确按钮</t>
-  </si>
-  <si>
-    <t>0x100C</t>
+    <t>储槽压力A</t>
+  </si>
+  <si>
+    <t>0x1068</t>
+  </si>
+  <si>
+    <t>错误代码</t>
+  </si>
+  <si>
+    <t>0x1091</t>
+  </si>
+  <si>
+    <t>汽化器泄压启动值</t>
+  </si>
+  <si>
+    <t>0x104E</t>
+  </si>
+  <si>
+    <t>1.1Mpa</t>
+  </si>
+  <si>
+    <t>汽化器出口压力A</t>
+  </si>
+  <si>
+    <t>0x106A</t>
+  </si>
+  <si>
+    <t>错误动画</t>
+  </si>
+  <si>
+    <t>0x1092</t>
+  </si>
+  <si>
+    <t>回压差阈值</t>
+  </si>
+  <si>
+    <t>B2-B1回压差阈值</t>
+  </si>
+  <si>
+    <t>0x1050</t>
+  </si>
+  <si>
+    <t>0.2Mpa</t>
+  </si>
+  <si>
+    <t>汽化器出口压力B</t>
+  </si>
+  <si>
+    <t>0x106C</t>
+  </si>
+  <si>
+    <t>储槽回压差阈值</t>
+  </si>
+  <si>
+    <t>0x1052</t>
+  </si>
+  <si>
+    <t>2.1Mpa</t>
+  </si>
+  <si>
+    <t>储槽液位</t>
+  </si>
+  <si>
+    <t>0x106E</t>
+  </si>
+  <si>
+    <t>停机模式时</t>
+  </si>
+  <si>
+    <t>汽化器出口压力泄压启动值</t>
+  </si>
+  <si>
+    <t>0x1054</t>
+  </si>
+  <si>
+    <t>2.2Mpa</t>
+  </si>
+  <si>
+    <t>储槽压力B</t>
+  </si>
+  <si>
+    <t>0x1070</t>
   </si>
   <si>
     <t>汽化器出口压力泄压停止值</t>
   </si>
   <si>
-    <t>0x104E</t>
-  </si>
-  <si>
-    <t>1.1Mpa</t>
-  </si>
-  <si>
-    <t>B1</t>
+    <t>0x1056</t>
+  </si>
+  <si>
+    <t>流量计A</t>
+  </si>
+  <si>
+    <t>0x1072</t>
+  </si>
+  <si>
+    <t>通讯信号源界面（8路/页）</t>
+  </si>
+  <si>
+    <t>0x1058</t>
+  </si>
+  <si>
+    <t>2.3Mpa</t>
+  </si>
+  <si>
+    <t>流量计B</t>
+  </si>
+  <si>
+    <t>0x1074</t>
+  </si>
+  <si>
+    <t>0x105A</t>
+  </si>
+  <si>
+    <t>安全策略保障</t>
+  </si>
+  <si>
+    <t>储槽压力阈值</t>
+  </si>
+  <si>
+    <t>0x105C</t>
+  </si>
+  <si>
+    <t>图标变量地址1</t>
+  </si>
+  <si>
+    <t>0x1094</t>
+  </si>
+  <si>
+    <t>储槽液位阈值</t>
+  </si>
+  <si>
+    <t>0x105E</t>
+  </si>
+  <si>
+    <t>2m³</t>
+  </si>
+  <si>
+    <t>图标变量地址2</t>
+  </si>
+  <si>
+    <t>0x1095</t>
+  </si>
+  <si>
+    <t>更新界面</t>
+  </si>
+  <si>
+    <t>图标变量地址3</t>
+  </si>
+  <si>
+    <t>0x1096</t>
+  </si>
+  <si>
+    <t>图标变量地址4</t>
+  </si>
+  <si>
+    <t>0x1097</t>
+  </si>
+  <si>
+    <t>图标变量地址5</t>
+  </si>
+  <si>
+    <t>0x1098</t>
+  </si>
+  <si>
+    <t>更新变量图标地址</t>
+  </si>
+  <si>
+    <t>0x1093</t>
+  </si>
+  <si>
+    <t>图标变量地址6</t>
+  </si>
+  <si>
+    <t>0x1099</t>
+  </si>
+  <si>
+    <t>图标变量地址7</t>
+  </si>
+  <si>
+    <t>0x109A</t>
+  </si>
+  <si>
+    <t>图标变量地址8</t>
+  </si>
+  <si>
+    <t>0x109B</t>
+  </si>
+  <si>
+    <t>10个用户阀状态显示地址</t>
+  </si>
+  <si>
+    <t>变动</t>
+  </si>
+  <si>
+    <t>阀门启停时间设置</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>0x100A.bit0</t>
+  </si>
+  <si>
+    <t>阀门1</t>
+  </si>
+  <si>
+    <t>0x10A6/0x10A7</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>0x100A.bit1</t>
+  </si>
+  <si>
+    <t>阀门2</t>
+  </si>
+  <si>
+    <t>0x10A8/0x10A9</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>0x100A.bit2</t>
+  </si>
+  <si>
+    <t>阀门3</t>
+  </si>
+  <si>
+    <t>0x10AA/0x10AB</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>0x100A.bit3</t>
+  </si>
+  <si>
+    <t>阀门4</t>
+  </si>
+  <si>
+    <t>0x10AC/0x10AD</t>
+  </si>
+  <si>
+    <t>0x100A.bit4</t>
+  </si>
+  <si>
+    <t>气站工作时间段设置</t>
+  </si>
+  <si>
+    <t>阀门5</t>
+  </si>
+  <si>
+    <t>0x10AE/0x10AF</t>
+  </si>
+  <si>
+    <t>0x100A.bit5</t>
+  </si>
+  <si>
+    <t>阀门6</t>
+  </si>
+  <si>
+    <t>0x10B0/0x10B1</t>
+  </si>
+  <si>
+    <t>0x100A.bit6</t>
+  </si>
+  <si>
+    <t>阀门7</t>
+  </si>
+  <si>
+    <t>0x10B2/0x10B3</t>
+  </si>
+  <si>
+    <t>0x100A.bit7</t>
+  </si>
+  <si>
+    <t>开始时间_H</t>
+  </si>
+  <si>
+    <t>0x10A0</t>
+  </si>
+  <si>
+    <t>阀门8</t>
+  </si>
+  <si>
+    <t>0x10B4/0x10B5</t>
+  </si>
+  <si>
+    <t>0x100A.bit8</t>
+  </si>
+  <si>
+    <t>开始时间_M</t>
+  </si>
+  <si>
+    <t>0x10A1</t>
+  </si>
+  <si>
+    <t>阀门9</t>
+  </si>
+  <si>
+    <t>0x10B6/0x10B7</t>
+  </si>
+  <si>
+    <t>0x100A.bit9</t>
+  </si>
+  <si>
+    <t>开始时间_S</t>
+  </si>
+  <si>
+    <t>0x10A2</t>
+  </si>
+  <si>
+    <t>阀门10</t>
+  </si>
+  <si>
+    <t>0x10B8/0x10B9</t>
+  </si>
+  <si>
+    <t>0x100A.bit10</t>
+  </si>
+  <si>
+    <t>结束时间_H</t>
+  </si>
+  <si>
+    <t>0x10A3</t>
+  </si>
+  <si>
+    <t>阀门11</t>
+  </si>
+  <si>
+    <t>0x10BA/0x10BB</t>
+  </si>
+  <si>
+    <t>0x100A.bit11</t>
+  </si>
+  <si>
+    <t>结束时间_M</t>
+  </si>
+  <si>
+    <t>0x10A4</t>
+  </si>
+  <si>
+    <t>阀门12</t>
+  </si>
+  <si>
+    <t>0x10BC/0x10BD</t>
+  </si>
+  <si>
+    <t>0x100A.bit12</t>
+  </si>
+  <si>
+    <t>结束时间_S</t>
+  </si>
+  <si>
+    <t>0x10A5</t>
+  </si>
+  <si>
+    <t>阀门13</t>
+  </si>
+  <si>
+    <t>0x10BE/0x10BF</t>
+  </si>
+  <si>
+    <t>0x100A.bit13</t>
+  </si>
+  <si>
+    <t>阀门14</t>
+  </si>
+  <si>
+    <t>0x10C0/0x10C1</t>
+  </si>
+  <si>
+    <t>0x100A.bit14</t>
+  </si>
+  <si>
+    <t>阀门15</t>
+  </si>
+  <si>
+    <t>0x10C2/0x10C3</t>
+  </si>
+  <si>
+    <t>0x100A.bit15</t>
+  </si>
+  <si>
+    <t>阀门16</t>
+  </si>
+  <si>
+    <t>0x10C4/0x10C5</t>
+  </si>
+  <si>
+    <t>阈值设定3</t>
+  </si>
+  <si>
+    <t>储槽物理参数</t>
+  </si>
+  <si>
+    <t>储槽封头内高度</t>
   </si>
   <si>
     <t>0x1060</t>
   </si>
   <si>
-    <t>错误代码</t>
-  </si>
-  <si>
-    <t>0x1091</t>
-  </si>
-  <si>
-    <t>回压差阈值</t>
-  </si>
-  <si>
-    <t>B2-B1回压差阈值</t>
-  </si>
-  <si>
-    <t>0x1050</t>
-  </si>
-  <si>
-    <t>0.2Mpa</t>
-  </si>
-  <si>
-    <t>B2</t>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>储槽圆柱半径</t>
   </si>
   <si>
     <t>0x1062</t>
   </si>
   <si>
-    <t>错误动画</t>
-  </si>
-  <si>
-    <t>0x1092</t>
-  </si>
-  <si>
-    <t>储槽回压差阈值</t>
-  </si>
-  <si>
-    <t>0x1052</t>
-  </si>
-  <si>
-    <t>2.1Mpa</t>
-  </si>
-  <si>
-    <t>B3</t>
+    <t>1.25m</t>
+  </si>
+  <si>
+    <t>储槽圆柱长度</t>
   </si>
   <si>
     <t>0x1064</t>
   </si>
   <si>
-    <t>停机模式时</t>
-  </si>
-  <si>
-    <t>0x1054</t>
-  </si>
-  <si>
-    <t>2.2Mpa</t>
-  </si>
-  <si>
-    <t>B4</t>
+    <t>11.14m</t>
+  </si>
+  <si>
+    <t>储槽液体密度</t>
   </si>
   <si>
     <t>0x1066</t>
   </si>
   <si>
-    <t>0x1056</t>
-  </si>
-  <si>
-    <t>0x1058</t>
-  </si>
-  <si>
-    <t>2.3Mpa</t>
-  </si>
-  <si>
-    <t>通讯信号源界面（8路/页）</t>
-  </si>
-  <si>
-    <t>0x105A</t>
-  </si>
-  <si>
-    <t>安全策略保障</t>
-  </si>
-  <si>
-    <t>储槽压力阈值</t>
-  </si>
-  <si>
-    <t>0x105C</t>
-  </si>
-  <si>
-    <t>更新界面</t>
-  </si>
-  <si>
-    <t>储槽液位阈值</t>
-  </si>
-  <si>
-    <t>0x105E</t>
-  </si>
-  <si>
-    <t>2m³</t>
-  </si>
-  <si>
-    <t>图标变量地址1</t>
-  </si>
-  <si>
-    <t>0x1094</t>
-  </si>
-  <si>
-    <t>图标变量地址2</t>
-  </si>
-  <si>
-    <t>0x1095</t>
-  </si>
-  <si>
-    <t>更新变量图标地址</t>
-  </si>
-  <si>
-    <t>0x1093</t>
-  </si>
-  <si>
-    <t>图标变量地址3</t>
-  </si>
-  <si>
-    <t>0x1096</t>
-  </si>
-  <si>
-    <t>图标变量地址4</t>
-  </si>
-  <si>
-    <t>0x1097</t>
-  </si>
-  <si>
-    <t>图标变量地址5</t>
-  </si>
-  <si>
-    <t>0x1098</t>
-  </si>
-  <si>
-    <t>图标变量地址6</t>
-  </si>
-  <si>
-    <t>0x1099</t>
-  </si>
-  <si>
-    <t>图标变量地址7</t>
-  </si>
-  <si>
-    <t>0x109A</t>
-  </si>
-  <si>
-    <t>图标变量地址8</t>
-  </si>
-  <si>
-    <t>0x109B</t>
-  </si>
-  <si>
-    <t>10个用户阀状态显示地址</t>
-  </si>
-  <si>
-    <t>变动</t>
-  </si>
-  <si>
-    <t>阀门启停时间设置</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>0x100A.bit0</t>
-  </si>
-  <si>
-    <t>阀门1</t>
-  </si>
-  <si>
-    <t>0x10A6/0x10A7</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>0x100A.bit1</t>
-  </si>
-  <si>
-    <t>阀门2</t>
-  </si>
-  <si>
-    <t>0x10A8/0x10A9</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>0x100A.bit2</t>
-  </si>
-  <si>
-    <t>阀门3</t>
-  </si>
-  <si>
-    <t>0x10AA/0x10AB</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>0x100A.bit3</t>
-  </si>
-  <si>
-    <t>阀门4</t>
-  </si>
-  <si>
-    <t>0x10AC/0x10AD</t>
-  </si>
-  <si>
-    <t>0x100A.bit4</t>
-  </si>
-  <si>
-    <t>气站工作时间段设置</t>
-  </si>
-  <si>
-    <t>阀门5</t>
-  </si>
-  <si>
-    <t>0x10AE/0x10AF</t>
-  </si>
-  <si>
-    <t>0x100A.bit5</t>
-  </si>
-  <si>
-    <t>阀门6</t>
-  </si>
-  <si>
-    <t>0x10B0/0x10B1</t>
-  </si>
-  <si>
-    <t>0x100A.bit6</t>
-  </si>
-  <si>
-    <t>阀门7</t>
-  </si>
-  <si>
-    <t>0x10B2/0x10B3</t>
-  </si>
-  <si>
-    <t>0x100A.bit7</t>
-  </si>
-  <si>
-    <t>开始时间_H</t>
-  </si>
-  <si>
-    <t>0x10A0</t>
-  </si>
-  <si>
-    <t>阀门8</t>
-  </si>
-  <si>
-    <t>0x10B4/0x10B5</t>
-  </si>
-  <si>
-    <t>0x100A.bit8</t>
-  </si>
-  <si>
-    <t>开始时间_M</t>
-  </si>
-  <si>
-    <t>0x10A1</t>
-  </si>
-  <si>
-    <t>阀门9</t>
-  </si>
-  <si>
-    <t>0x10B6/0x10B7</t>
-  </si>
-  <si>
-    <t>0x100A.bit9</t>
-  </si>
-  <si>
-    <t>开始时间_S</t>
-  </si>
-  <si>
-    <t>0x10A2</t>
-  </si>
-  <si>
-    <t>阀门10</t>
-  </si>
-  <si>
-    <t>0x10B8/0x10B9</t>
-  </si>
-  <si>
-    <t>0x100A.bit10</t>
-  </si>
-  <si>
-    <t>结束时间_H</t>
-  </si>
-  <si>
-    <t>0x10A3</t>
-  </si>
-  <si>
-    <t>阀门11</t>
-  </si>
-  <si>
-    <t>0x10BA/0x10BB</t>
-  </si>
-  <si>
-    <t>0x100A.bit11</t>
-  </si>
-  <si>
-    <t>结束时间_M</t>
-  </si>
-  <si>
-    <t>0x10A4</t>
-  </si>
-  <si>
-    <t>阀门12</t>
-  </si>
-  <si>
-    <t>0x10BC/0x10BD</t>
-  </si>
-  <si>
-    <t>0x100A.bit12</t>
-  </si>
-  <si>
-    <t>结束时间_S</t>
-  </si>
-  <si>
-    <t>0x10A5</t>
-  </si>
-  <si>
-    <t>阀门13</t>
-  </si>
-  <si>
-    <t>0x10BE/0x10BF</t>
-  </si>
-  <si>
-    <t>0x100A.bit13</t>
-  </si>
-  <si>
-    <t>阀门14</t>
-  </si>
-  <si>
-    <t>0x10C0/0x10C1</t>
-  </si>
-  <si>
-    <t>0x100A.bit14</t>
-  </si>
-  <si>
-    <t>阀门15</t>
-  </si>
-  <si>
-    <t>0x10C2/0x10C3</t>
-  </si>
-  <si>
-    <t>0x100A.bit15</t>
-  </si>
-  <si>
-    <t>阀门16</t>
-  </si>
-  <si>
-    <t>0x10C4/0x10C5</t>
+    <t>1.977g/cm3</t>
   </si>
   <si>
     <t>卡槽1</t>
@@ -924,16 +996,16 @@
     <t>板卡类型</t>
   </si>
   <si>
-    <t>0x1070</t>
-  </si>
-  <si>
-    <t>0x1071</t>
-  </si>
-  <si>
-    <t>0x1072</t>
-  </si>
-  <si>
-    <t>0x1073</t>
+    <t>0x1080</t>
+  </si>
+  <si>
+    <t>0x1081</t>
+  </si>
+  <si>
+    <t>0x1082</t>
+  </si>
+  <si>
+    <t>0x1083</t>
   </si>
   <si>
     <t>0x1080.bit0</t>
@@ -1044,16 +1116,16 @@
     <t>卡槽8</t>
   </si>
   <si>
-    <t>0x1074</t>
-  </si>
-  <si>
-    <t>0x1075</t>
-  </si>
-  <si>
-    <t>0x1076</t>
-  </si>
-  <si>
-    <t>0x1077</t>
+    <t>0x1084</t>
+  </si>
+  <si>
+    <t>0x1085</t>
+  </si>
+  <si>
+    <t>0x1086</t>
+  </si>
+  <si>
+    <t>0x1087</t>
   </si>
   <si>
     <t>0x1084.bit0</t>
@@ -1164,16 +1236,16 @@
     <t>卡槽12</t>
   </si>
   <si>
-    <t>0x1078</t>
-  </si>
-  <si>
-    <t>0x1079</t>
-  </si>
-  <si>
-    <t>0x107A</t>
-  </si>
-  <si>
-    <t>0x107B</t>
+    <t>0x1088</t>
+  </si>
+  <si>
+    <t>0x1089</t>
+  </si>
+  <si>
+    <t>0x108A</t>
+  </si>
+  <si>
+    <t>0x108B</t>
   </si>
   <si>
     <t>0x1088.bit0</t>
@@ -1284,16 +1356,16 @@
     <t>卡槽16</t>
   </si>
   <si>
-    <t>0x107C</t>
-  </si>
-  <si>
-    <t>0x107D</t>
-  </si>
-  <si>
-    <t>0x107E</t>
-  </si>
-  <si>
-    <t>0x107F</t>
+    <t>0x108C</t>
+  </si>
+  <si>
+    <t>0x108D</t>
+  </si>
+  <si>
+    <t>0x108E</t>
+  </si>
+  <si>
+    <t>0x108F</t>
   </si>
   <si>
     <t>0x108C.bit0</t>
@@ -1413,49 +1485,25 @@
     <t>0x1008.bit4</t>
   </si>
   <si>
-    <t>0x1006.bit8</t>
-  </si>
-  <si>
     <t>0x1008.bit5</t>
   </si>
   <si>
-    <t>0x1006.bit9</t>
-  </si>
-  <si>
     <t>0x1008.bit6</t>
   </si>
   <si>
-    <t>0x1006.bit10</t>
-  </si>
-  <si>
     <t>0x1008.bit7</t>
   </si>
   <si>
-    <t>0x1006.bit11</t>
-  </si>
-  <si>
     <t>0x1008.bit8</t>
   </si>
   <si>
-    <t>0x1006.bit12</t>
-  </si>
-  <si>
     <t>0x1008.bit9</t>
   </si>
   <si>
-    <t>0x1006.bit13</t>
-  </si>
-  <si>
     <t>0x1008.bit10</t>
   </si>
   <si>
-    <t>0x1006.bit14</t>
-  </si>
-  <si>
     <t>0x1008.bit11</t>
-  </si>
-  <si>
-    <t>0x1006.bit15</t>
   </si>
   <si>
     <t>0x1008.bit12</t>
@@ -1476,8 +1524,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1533,6 +1581,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1540,7 +1595,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,21 +1619,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,21 +1633,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1600,9 +1641,48 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1616,53 +1696,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1671,6 +1712,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1805,13 +1853,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,61 +1901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,7 +1925,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,19 +1979,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,48 +2009,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2074,28 +2122,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2230,6 +2256,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -2287,6 +2353,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2302,24 +2377,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2331,6 +2388,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2368,8 +2434,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2392,10 +2458,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2404,133 +2470,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2688,256 +2754,256 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3340,13 +3406,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AB85"/>
+  <dimension ref="B2:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
-      <selection activeCell="AA52" sqref="AA52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="16" max="16" width="10.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:20">
       <c r="B2" s="25"/>
@@ -3358,13 +3427,13 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="25"/>
       <c r="O2" s="26" t="s">
         <v>2</v>
@@ -3383,11 +3452,11 @@
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="25"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
@@ -3499,11 +3568,11 @@
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="25"/>
       <c r="O7" s="32"/>
       <c r="P7" s="33"/>
@@ -3546,20 +3615,20 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="112"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="103"/>
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="25"/>
@@ -3571,23 +3640,23 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="57" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67" t="s">
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="93"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="1" t="s">
         <v>17</v>
       </c>
@@ -3595,7 +3664,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="113"/>
+      <c r="AA10" s="104"/>
     </row>
     <row r="11" spans="2:27">
       <c r="B11" s="25"/>
@@ -3609,21 +3678,21 @@
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="93"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="113"/>
+      <c r="AA11" s="104"/>
     </row>
     <row r="12" spans="2:27">
       <c r="B12" s="25"/>
@@ -3649,8 +3718,8 @@
       <c r="L12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="69"/>
-      <c r="N12" s="66"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="59"/>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3731,8 @@
         <v>5</v>
       </c>
       <c r="S12" s="7"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="93"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="83"/>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3744,7 @@
         <v>5</v>
       </c>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="113"/>
+      <c r="AA12" s="104"/>
     </row>
     <row r="13" spans="2:27">
       <c r="B13" s="25"/>
@@ -3702,7 +3771,7 @@
         <v>23</v>
       </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="66"/>
+      <c r="N13" s="59"/>
       <c r="O13" s="10" t="s">
         <v>24</v>
       </c>
@@ -3714,20 +3783,20 @@
         <v>26</v>
       </c>
       <c r="S13" s="10"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="94" t="s">
+      <c r="T13" s="82"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94" t="s">
+      <c r="W13" s="84"/>
+      <c r="X13" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y13" s="94" t="s">
+      <c r="Y13" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="113"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="104"/>
     </row>
     <row r="14" spans="2:27">
       <c r="B14" s="25"/>
@@ -3754,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="M14" s="28"/>
-      <c r="N14" s="66"/>
+      <c r="N14" s="59"/>
       <c r="O14" s="10" t="s">
         <v>33</v>
       </c>
@@ -3766,20 +3835,20 @@
         <v>34</v>
       </c>
       <c r="S14" s="10"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="94" t="s">
+      <c r="T14" s="82"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94" t="s">
+      <c r="W14" s="84"/>
+      <c r="X14" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y14" s="94" t="s">
+      <c r="Y14" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="113"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="104"/>
     </row>
     <row r="15" spans="2:27">
       <c r="B15" s="25"/>
@@ -3806,7 +3875,7 @@
         <v>40</v>
       </c>
       <c r="M15" s="28"/>
-      <c r="N15" s="66"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="10" t="s">
         <v>41</v>
       </c>
@@ -3818,20 +3887,20 @@
         <v>42</v>
       </c>
       <c r="S15" s="10"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="94" t="s">
+      <c r="T15" s="82"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94" t="s">
+      <c r="W15" s="84"/>
+      <c r="X15" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y15" s="94" t="s">
+      <c r="Y15" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="113"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="104"/>
     </row>
     <row r="16" spans="2:27">
       <c r="B16" s="25"/>
@@ -3858,7 +3927,7 @@
         <v>48</v>
       </c>
       <c r="M16" s="28"/>
-      <c r="N16" s="66"/>
+      <c r="N16" s="59"/>
       <c r="O16" s="10" t="s">
         <v>49</v>
       </c>
@@ -3870,20 +3939,20 @@
         <v>50</v>
       </c>
       <c r="S16" s="10"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="94" t="s">
+      <c r="T16" s="82"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94" t="s">
+      <c r="W16" s="84"/>
+      <c r="X16" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Y16" s="94" t="s">
+      <c r="Y16" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="113"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="104"/>
     </row>
     <row r="17" spans="2:27">
       <c r="B17" s="25"/>
@@ -3910,7 +3979,7 @@
         <v>56</v>
       </c>
       <c r="M17" s="28"/>
-      <c r="N17" s="66"/>
+      <c r="N17" s="59"/>
       <c r="O17" s="10" t="s">
         <v>57</v>
       </c>
@@ -3922,8 +3991,8 @@
         <v>58</v>
       </c>
       <c r="S17" s="10"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="93"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="83"/>
       <c r="V17" s="10" t="s">
         <v>59</v>
       </c>
@@ -3935,7 +4004,7 @@
         <v>60</v>
       </c>
       <c r="Z17" s="24"/>
-      <c r="AA17" s="113"/>
+      <c r="AA17" s="104"/>
     </row>
     <row r="18" spans="2:27">
       <c r="B18" s="25"/>
@@ -3962,7 +4031,7 @@
         <v>65</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="66"/>
+      <c r="N18" s="59"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -3970,8 +4039,8 @@
         <v>66</v>
       </c>
       <c r="S18" s="10"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="93"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="83"/>
       <c r="V18" s="10" t="s">
         <v>67</v>
       </c>
@@ -3983,7 +4052,7 @@
         <v>68</v>
       </c>
       <c r="Z18" s="24"/>
-      <c r="AA18" s="113"/>
+      <c r="AA18" s="104"/>
     </row>
     <row r="19" spans="2:27">
       <c r="B19" s="25"/>
@@ -4006,7 +4075,7 @@
         <v>71</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="66"/>
+      <c r="N19" s="59"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -4014,8 +4083,8 @@
         <v>72</v>
       </c>
       <c r="S19" s="10"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="83"/>
       <c r="V19" s="10" t="s">
         <v>73</v>
       </c>
@@ -4027,7 +4096,7 @@
         <v>74</v>
       </c>
       <c r="Z19" s="24"/>
-      <c r="AA19" s="113"/>
+      <c r="AA19" s="104"/>
     </row>
     <row r="20" spans="2:27">
       <c r="B20" s="25"/>
@@ -4050,7 +4119,7 @@
         <v>77</v>
       </c>
       <c r="M20" s="28"/>
-      <c r="N20" s="66"/>
+      <c r="N20" s="59"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -4058,8 +4127,8 @@
         <v>78</v>
       </c>
       <c r="S20" s="10"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="93"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="83"/>
       <c r="V20" s="10" t="s">
         <v>79</v>
       </c>
@@ -4071,7 +4140,7 @@
         <v>80</v>
       </c>
       <c r="Z20" s="24"/>
-      <c r="AA20" s="113"/>
+      <c r="AA20" s="104"/>
     </row>
     <row r="21" spans="2:27">
       <c r="B21" s="25"/>
@@ -4081,29 +4150,29 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="70" t="s">
+      <c r="I21" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="93"/>
-      <c r="V21" s="57" t="s">
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="113"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="104"/>
     </row>
     <row r="22" ht="15.15" spans="2:27">
       <c r="B22" s="25"/>
@@ -4118,15 +4187,15 @@
       <c r="K22" s="46"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="93"/>
-      <c r="AA22" s="113"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="83"/>
+      <c r="AA22" s="104"/>
     </row>
     <row r="23" ht="15.15" spans="2:27">
       <c r="B23" s="25"/>
@@ -4148,8 +4217,8 @@
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
-      <c r="U23" s="93"/>
-      <c r="AA23" s="113"/>
+      <c r="U23" s="83"/>
+      <c r="AA23" s="104"/>
     </row>
     <row r="24" spans="2:27">
       <c r="B24" s="25"/>
@@ -4169,16 +4238,16 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="74" t="s">
+      <c r="O24" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="93"/>
-      <c r="AA24" s="113"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="83"/>
+      <c r="AA24" s="104"/>
     </row>
     <row r="25" spans="2:27">
       <c r="B25" s="25"/>
@@ -4194,14 +4263,14 @@
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="93"/>
-      <c r="AA25" s="113"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="83"/>
+      <c r="AA25" s="104"/>
     </row>
     <row r="26" spans="2:27">
       <c r="B26" s="25"/>
@@ -4240,11 +4309,11 @@
         <v>5</v>
       </c>
       <c r="S26" s="7"/>
-      <c r="T26" s="65" t="s">
+      <c r="T26" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="U26" s="93"/>
-      <c r="AA26" s="113"/>
+      <c r="U26" s="83"/>
+      <c r="AA26" s="104"/>
     </row>
     <row r="27" spans="2:27">
       <c r="B27" s="25"/>
@@ -4286,8 +4355,8 @@
       <c r="T27" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="U27" s="93"/>
-      <c r="AA27" s="113"/>
+      <c r="U27" s="83"/>
+      <c r="AA27" s="104"/>
     </row>
     <row r="28" spans="2:27">
       <c r="B28" s="25"/>
@@ -4329,8 +4398,8 @@
       <c r="T28" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="U28" s="93"/>
-      <c r="AA28" s="113"/>
+      <c r="U28" s="83"/>
+      <c r="AA28" s="104"/>
     </row>
     <row r="29" ht="15.15" spans="2:27">
       <c r="B29" s="25"/>
@@ -4372,8 +4441,8 @@
       <c r="T29" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="U29" s="97"/>
-      <c r="AA29" s="114"/>
+      <c r="U29" s="88"/>
+      <c r="AA29" s="106"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="25"/>
@@ -4456,13 +4525,13 @@
       <c r="T31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="V31" s="98" t="s">
+      <c r="V31" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
     </row>
     <row r="32" spans="2:26">
       <c r="B32" s="25"/>
@@ -4504,11 +4573,11 @@
       <c r="T32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="V32" s="99"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="99"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
     </row>
     <row r="33" spans="2:26">
       <c r="B33" s="25"/>
@@ -4553,14 +4622,14 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W33" s="83"/>
+      <c r="W33" s="76"/>
       <c r="X33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="Y33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Z33" s="84"/>
+      <c r="Z33" s="77"/>
     </row>
     <row r="34" spans="2:26">
       <c r="B34" s="25"/>
@@ -4623,13 +4692,13 @@
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="I35" s="75" t="s">
+      <c r="I35" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
       <c r="N35" s="25"/>
       <c r="O35" s="10" t="s">
         <v>144</v>
@@ -4658,13 +4727,13 @@
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="I36" s="75" t="s">
+      <c r="I36" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
       <c r="N36" s="25"/>
       <c r="O36" s="10" t="s">
         <v>148</v>
@@ -4680,11 +4749,11 @@
       <c r="T36" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="V36" s="100"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="115"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="107"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="25"/>
@@ -4693,7 +4762,7 @@
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="M37" s="76"/>
+      <c r="M37" s="69"/>
       <c r="N37" s="25"/>
       <c r="O37" s="10" t="s">
         <v>150</v>
@@ -4726,10 +4795,10 @@
       <c r="Q38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="10" t="s">
+      <c r="R38" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="S38" s="10"/>
+      <c r="S38" s="13"/>
       <c r="T38" s="10" t="s">
         <v>146</v>
       </c>
@@ -4743,14 +4812,14 @@
       <c r="G39" s="25"/>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
-      <c r="O39" s="77" t="s">
+      <c r="O39" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="25"/>
@@ -4795,13 +4864,13 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
-      <c r="X41" s="98" t="s">
+      <c r="X41" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="Y41" s="99"/>
-      <c r="Z41" s="99"/>
-      <c r="AA41" s="99"/>
-      <c r="AB41" s="99"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="90"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
     </row>
     <row r="42" spans="2:28">
       <c r="B42" s="25"/>
@@ -4833,11 +4902,11 @@
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
       <c r="T42" s="25"/>
-      <c r="X42" s="99"/>
-      <c r="Y42" s="99"/>
-      <c r="Z42" s="99"/>
-      <c r="AA42" s="99"/>
-      <c r="AB42" s="99"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
     </row>
     <row r="43" spans="2:28">
       <c r="B43" s="25"/>
@@ -4860,32 +4929,32 @@
         <v>161</v>
       </c>
       <c r="K43" s="25"/>
-      <c r="L43" s="78" t="s">
+      <c r="L43" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
       <c r="Q43" s="25"/>
-      <c r="R43" s="102" t="s">
+      <c r="R43" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="S43" s="103"/>
-      <c r="T43" s="103"/>
-      <c r="U43" s="103"/>
-      <c r="V43" s="103"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y43" s="83"/>
+      <c r="Y43" s="76"/>
       <c r="Z43" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AA43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AB43" s="84"/>
+      <c r="AB43" s="77"/>
     </row>
     <row r="44" spans="2:28">
       <c r="B44" s="25"/>
@@ -4906,17 +4975,17 @@
         <v>166</v>
       </c>
       <c r="K44" s="25"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
       <c r="Q44" s="25"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="103"/>
-      <c r="U44" s="103"/>
-      <c r="V44" s="103"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="94"/>
+      <c r="V44" s="94"/>
       <c r="X44" s="11" t="s">
         <v>167</v>
       </c>
@@ -4931,23 +5000,23 @@
     </row>
     <row r="45" spans="2:28">
       <c r="B45" s="25"/>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="13" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13" t="s">
+      <c r="F45" s="51"/>
+      <c r="G45" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51" t="s">
         <v>170</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13" t="s">
-        <v>171</v>
       </c>
       <c r="K45" s="25"/>
       <c r="L45" s="3" t="s">
@@ -4965,186 +5034,184 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S45" s="83"/>
+      <c r="S45" s="76"/>
       <c r="T45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="U45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="84"/>
+      <c r="V45" s="77"/>
       <c r="X45" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y45" s="10"/>
       <c r="Z45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="AA45" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB45" s="11"/>
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="25"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S46" s="11"/>
       <c r="T46" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V46" s="11"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="101"/>
-      <c r="AB46" s="115"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="92"/>
+      <c r="Z46" s="92"/>
+      <c r="AA46" s="92"/>
+      <c r="AB46" s="107"/>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="25"/>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16" t="s">
+      <c r="I47" s="13"/>
+      <c r="J47" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="K47" s="25"/>
       <c r="L47" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10" t="s">
         <v>8</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V47" s="10"/>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="25"/>
-      <c r="C48" s="16"/>
+      <c r="C48" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I48" s="16"/>
       <c r="J48" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K48" s="25"/>
       <c r="L48" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="25"/>
-      <c r="R48" s="104"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="106"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="97"/>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="25"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="16"/>
+      <c r="J49" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10" t="s">
         <v>19</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="25"/>
@@ -5154,30 +5221,36 @@
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="25"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="K50" s="25"/>
-      <c r="L50" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
+      <c r="L50" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="P50" s="10"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
@@ -5185,32 +5258,37 @@
     </row>
     <row r="51" spans="2:26">
       <c r="B51" s="25"/>
-      <c r="C51" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59" t="s">
-        <v>201</v>
+      <c r="H51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
+      <c r="L51" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="P51" s="10"/>
       <c r="Q51" s="25"/>
-      <c r="R51" s="107" t="s">
-        <v>202</v>
+      <c r="R51" s="98" t="s">
+        <v>208</v>
       </c>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
@@ -5223,28 +5301,36 @@
     </row>
     <row r="52" spans="2:26">
       <c r="B52" s="25"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59" t="s">
+      <c r="C52" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59" t="s">
-        <v>191</v>
+      <c r="H52" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52" t="s">
+        <v>210</v>
       </c>
       <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
+      <c r="L52" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="P52" s="10"/>
       <c r="Q52" s="25"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -5258,44 +5344,42 @@
     </row>
     <row r="53" spans="2:26">
       <c r="B53" s="25"/>
-      <c r="C53" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20" t="s">
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20" t="s">
-        <v>171</v>
+      <c r="H53" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52" t="s">
+        <v>195</v>
       </c>
       <c r="K53" s="25"/>
-      <c r="L53" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
+      <c r="L53" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
       <c r="Q53" s="25"/>
       <c r="R53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S53" s="83"/>
+      <c r="S53" s="76"/>
       <c r="T53" s="5" t="s">
         <v>4</v>
       </c>
       <c r="U53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="V53" s="84"/>
+      <c r="V53" s="77"/>
       <c r="W53" s="25"/>
       <c r="X53" s="25"/>
       <c r="Y53" s="25"/>
@@ -5303,36 +5387,33 @@
     </row>
     <row r="54" spans="2:26">
       <c r="B54" s="25"/>
-      <c r="C54" s="20"/>
+      <c r="C54" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
+        <v>175</v>
+      </c>
       <c r="R54" s="11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="S54" s="11"/>
       <c r="T54" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="V54" s="11"/>
       <c r="W54" s="25"/>
@@ -5342,36 +5423,31 @@
     </row>
     <row r="55" spans="2:26">
       <c r="B55" s="25"/>
-      <c r="C55" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="L55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M55" s="83"/>
-      <c r="N55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P55" s="84"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="R55" s="11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="S55" s="11"/>
       <c r="T55" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="V55" s="11"/>
       <c r="W55" s="25"/>
@@ -5381,33 +5457,32 @@
     </row>
     <row r="56" spans="2:26">
       <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="L56" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="P56" s="11"/>
+      <c r="C56" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="L56" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
       <c r="R56" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="S56" s="11"/>
       <c r="T56" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="V56" s="11"/>
       <c r="W56" s="25"/>
@@ -5417,27 +5492,20 @@
     </row>
     <row r="57" spans="2:26">
       <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
       <c r="R57" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="V57" s="11"/>
       <c r="W57" s="25"/>
@@ -5454,20 +5522,26 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="86"/>
-      <c r="N58" s="86"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="87"/>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="76"/>
+      <c r="N58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="77"/>
       <c r="R58" s="11" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="S58" s="11"/>
       <c r="T58" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="V58" s="11"/>
       <c r="W58" s="25"/>
@@ -5484,15 +5558,26 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
+      <c r="L59" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="P59" s="11"/>
       <c r="R59" s="11" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="V59" s="11"/>
       <c r="W59" s="25"/>
@@ -5506,21 +5591,21 @@
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
       <c r="Q60" s="25"/>
       <c r="R60" s="11" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="S60" s="11"/>
       <c r="T60" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U60" s="11" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="V60" s="11"/>
     </row>
@@ -5532,14 +5617,14 @@
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
       <c r="R61" s="11" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="S61" s="11"/>
       <c r="T61" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U61" s="11" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="V61" s="11"/>
     </row>
@@ -5548,11 +5633,11 @@
       <c r="C62" s="25"/>
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="109"/>
-      <c r="T62" s="109"/>
-      <c r="U62" s="109"/>
-      <c r="V62" s="110"/>
+      <c r="R62" s="99"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="100"/>
+      <c r="U62" s="100"/>
+      <c r="V62" s="101"/>
     </row>
     <row r="63" ht="15.15" spans="2:20">
       <c r="B63" s="25"/>
@@ -5566,57 +5651,57 @@
     <row r="64" ht="15.15" spans="2:28">
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="89"/>
-      <c r="V64" s="111"/>
-      <c r="X64" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y64" s="99"/>
-      <c r="Z64" s="99"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="99"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="79"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+      <c r="R64" s="56"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="79"/>
+      <c r="V64" s="102"/>
+      <c r="X64" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y64" s="90"/>
+      <c r="Z64" s="90"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="90"/>
     </row>
     <row r="65" spans="2:28">
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="K65" s="117"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="K65" s="109"/>
       <c r="P65" s="25"/>
       <c r="Q65" s="125" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="R65" s="126"/>
       <c r="S65" s="126"/>
       <c r="T65" s="126"/>
       <c r="U65" s="126"/>
       <c r="V65" s="127"/>
-      <c r="X65" s="99"/>
-      <c r="Y65" s="99"/>
-      <c r="Z65" s="99"/>
-      <c r="AA65" s="99"/>
-      <c r="AB65" s="99"/>
+      <c r="X65" s="90"/>
+      <c r="Y65" s="90"/>
+      <c r="Z65" s="90"/>
+      <c r="AA65" s="90"/>
+      <c r="AB65" s="90"/>
     </row>
     <row r="66" spans="2:28">
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
-      <c r="I66" s="116"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="117"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="109"/>
       <c r="P66" s="25"/>
       <c r="Q66" s="126"/>
       <c r="R66" s="126"/>
@@ -5627,548 +5712,548 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y66" s="83"/>
+      <c r="Y66" s="76"/>
       <c r="Z66" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AA66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AB66" s="84"/>
+      <c r="AB66" s="77"/>
     </row>
     <row r="67" spans="2:28">
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
-      <c r="I67" s="116"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="117"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="109"/>
       <c r="P67" s="25"/>
       <c r="Q67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R67" s="83"/>
+      <c r="R67" s="76"/>
       <c r="S67" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U67" s="84"/>
+      <c r="U67" s="77"/>
       <c r="V67" s="127"/>
       <c r="X67" s="11" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Y67" s="11"/>
       <c r="Z67" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA67" s="11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AB67" s="11"/>
     </row>
     <row r="68" spans="9:28">
-      <c r="I68" s="116"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="117"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109"/>
       <c r="Q68" s="11" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="U68" s="11"/>
       <c r="V68" s="127"/>
       <c r="X68" s="11" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AB68" s="11"/>
     </row>
     <row r="69" spans="9:28">
-      <c r="I69" s="116"/>
+      <c r="I69" s="108"/>
       <c r="Q69" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="R69" s="11"/>
       <c r="S69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="U69" s="11"/>
       <c r="V69" s="127"/>
       <c r="X69" s="11" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Y69" s="11"/>
       <c r="Z69" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA69" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AB69" s="11"/>
     </row>
     <row r="70" spans="9:28">
-      <c r="I70" s="116"/>
+      <c r="I70" s="108"/>
       <c r="Q70" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="R70" s="11"/>
       <c r="S70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="U70" s="11"/>
       <c r="V70" s="127"/>
       <c r="X70" s="11" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Y70" s="11"/>
       <c r="Z70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA70" s="11" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AB70" s="11"/>
     </row>
     <row r="71" spans="9:28">
-      <c r="I71" s="116"/>
+      <c r="I71" s="108"/>
       <c r="Q71" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="R71" s="11"/>
       <c r="S71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="U71" s="11"/>
       <c r="V71" s="127"/>
       <c r="X71" s="11" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA71" s="11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AB71" s="11"/>
     </row>
     <row r="72" spans="9:28">
-      <c r="I72" s="116"/>
-      <c r="J72" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="K72" s="119"/>
-      <c r="L72" s="119"/>
-      <c r="M72" s="119"/>
-      <c r="N72" s="119"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="K72" s="111"/>
+      <c r="L72" s="111"/>
+      <c r="M72" s="111"/>
+      <c r="N72" s="111"/>
       <c r="Q72" s="11" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="R72" s="11"/>
       <c r="S72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="U72" s="11"/>
       <c r="V72" s="127"/>
       <c r="X72" s="11" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA72" s="11" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AB72" s="11"/>
     </row>
     <row r="73" spans="9:28">
-      <c r="I73" s="116"/>
-      <c r="J73" s="119"/>
-      <c r="K73" s="119"/>
-      <c r="L73" s="119"/>
-      <c r="M73" s="119"/>
-      <c r="N73" s="119"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="111"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="111"/>
+      <c r="M73" s="111"/>
+      <c r="N73" s="111"/>
       <c r="Q73" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="R73" s="11"/>
       <c r="S73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="U73" s="11"/>
       <c r="V73" s="127"/>
       <c r="X73" s="11" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA73" s="11" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AB73" s="11"/>
     </row>
     <row r="74" spans="9:28">
-      <c r="I74" s="116"/>
+      <c r="I74" s="108"/>
       <c r="J74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K74" s="83"/>
+      <c r="K74" s="76"/>
       <c r="L74" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M74" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N74" s="84"/>
+      <c r="N74" s="77"/>
       <c r="Q74" s="11" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="R74" s="11"/>
       <c r="S74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="U74" s="10"/>
       <c r="V74" s="127"/>
       <c r="X74" s="11" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA74" s="11" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AB74" s="11"/>
     </row>
     <row r="75" spans="9:28">
-      <c r="I75" s="116"/>
+      <c r="I75" s="108"/>
       <c r="J75" s="11" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N75" s="11"/>
       <c r="Q75" s="11" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T75" s="10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="U75" s="10"/>
       <c r="V75" s="127"/>
       <c r="X75" s="11" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA75" s="11" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AB75" s="11"/>
     </row>
     <row r="76" spans="9:28">
-      <c r="I76" s="116"/>
+      <c r="I76" s="108"/>
       <c r="J76" s="11" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="N76" s="11"/>
       <c r="Q76" s="11" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="R76" s="11"/>
       <c r="S76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T76" s="10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="U76" s="10"/>
       <c r="V76" s="127"/>
       <c r="X76" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA76" s="11" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AB76" s="11"/>
     </row>
     <row r="77" spans="9:28">
-      <c r="I77" s="116"/>
+      <c r="I77" s="108"/>
       <c r="J77" s="11" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N77" s="11"/>
       <c r="Q77" s="11" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="R77" s="11"/>
       <c r="S77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T77" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="U77" s="10"/>
       <c r="V77" s="127"/>
       <c r="X77" s="11" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA77" s="11" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AB77" s="11"/>
     </row>
     <row r="78" spans="9:28">
-      <c r="I78" s="116"/>
+      <c r="I78" s="108"/>
       <c r="J78" s="11" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="N78" s="11"/>
       <c r="Q78" s="11" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="R78" s="11"/>
       <c r="S78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="U78" s="10"/>
       <c r="V78" s="127"/>
       <c r="X78" s="11" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA78" s="11" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AB78" s="11"/>
     </row>
     <row r="79" spans="9:28">
-      <c r="I79" s="116"/>
+      <c r="I79" s="108"/>
       <c r="J79" s="11" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N79" s="11"/>
       <c r="Q79" s="11" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="R79" s="11"/>
       <c r="S79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="U79" s="10"/>
       <c r="V79" s="127"/>
       <c r="X79" s="11" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA79" s="11" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AB79" s="11"/>
     </row>
     <row r="80" spans="9:28">
-      <c r="I80" s="116"/>
+      <c r="I80" s="108"/>
       <c r="J80" s="11" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="N80" s="11"/>
       <c r="Q80" s="11" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="R80" s="11"/>
       <c r="S80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T80" s="10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="U80" s="10"/>
       <c r="V80" s="127"/>
       <c r="X80" s="11" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA80" s="11" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="AB80" s="11"/>
     </row>
     <row r="81" spans="9:28">
-      <c r="I81" s="116"/>
+      <c r="I81" s="108"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="Q81" s="11" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="R81" s="11"/>
       <c r="S81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="U81" s="10"/>
       <c r="V81" s="127"/>
       <c r="X81" s="11" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA81" s="11" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AB81" s="11"/>
     </row>
     <row r="82" spans="9:28">
-      <c r="I82" s="116"/>
-      <c r="J82" s="120"/>
-      <c r="K82" s="121"/>
-      <c r="L82" s="121"/>
-      <c r="M82" s="121"/>
-      <c r="N82" s="122"/>
+      <c r="I82" s="108"/>
+      <c r="J82" s="112"/>
+      <c r="K82" s="113"/>
+      <c r="L82" s="113"/>
+      <c r="M82" s="113"/>
+      <c r="N82" s="114"/>
       <c r="Q82" s="11" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="R82" s="11"/>
       <c r="S82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="U82" s="10"/>
       <c r="V82" s="127"/>
       <c r="X82" s="11" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AA82" s="11" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AB82" s="11"/>
     </row>
     <row r="83" ht="15.15" spans="9:28">
-      <c r="I83" s="116"/>
+      <c r="I83" s="108"/>
       <c r="Q83" s="11" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="R83" s="11"/>
       <c r="S83" s="11" t="s">
         <v>62</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="U83" s="10"/>
       <c r="V83" s="127"/>
@@ -6179,14 +6264,14 @@
       <c r="AB83" s="134"/>
     </row>
     <row r="84" ht="15.9" spans="9:22">
-      <c r="I84" s="123"/>
-      <c r="J84" s="124"/>
-      <c r="K84" s="124"/>
-      <c r="L84" s="124"/>
-      <c r="M84" s="124"/>
-      <c r="N84" s="124"/>
-      <c r="O84" s="124"/>
-      <c r="P84" s="124"/>
+      <c r="I84" s="115"/>
+      <c r="J84" s="116"/>
+      <c r="K84" s="116"/>
+      <c r="L84" s="116"/>
+      <c r="M84" s="116"/>
+      <c r="N84" s="116"/>
+      <c r="O84" s="116"/>
+      <c r="P84" s="116"/>
       <c r="Q84" s="129"/>
       <c r="R84" s="130"/>
       <c r="S84" s="130"/>
@@ -6195,8 +6280,226 @@
       <c r="V84" s="132"/>
     </row>
     <row r="85" ht="15.15"/>
+    <row r="88" spans="9:16">
+      <c r="I88" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="J88" s="117"/>
+      <c r="K88" s="117"/>
+      <c r="L88" s="117"/>
+      <c r="M88" s="117"/>
+      <c r="N88" s="117"/>
+      <c r="O88" s="117"/>
+      <c r="P88" s="117"/>
+    </row>
+    <row r="89" spans="9:16">
+      <c r="I89" s="117"/>
+      <c r="J89" s="117"/>
+      <c r="K89" s="117"/>
+      <c r="L89" s="117"/>
+      <c r="M89" s="117"/>
+      <c r="N89" s="117"/>
+      <c r="O89" s="117"/>
+      <c r="P89" s="117"/>
+    </row>
+    <row r="90" spans="9:16">
+      <c r="I90" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J90" s="49"/>
+      <c r="K90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O90" s="7"/>
+      <c r="P90" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="9:16">
+      <c r="I91" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="J91" s="119"/>
+      <c r="K91" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="O91" s="50"/>
+      <c r="P91" s="50" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="9:16">
+      <c r="I92" s="120"/>
+      <c r="J92" s="121"/>
+      <c r="K92" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="L92" s="50"/>
+      <c r="M92" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="O92" s="50"/>
+      <c r="P92" s="50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="9:16">
+      <c r="I93" s="120"/>
+      <c r="J93" s="121"/>
+      <c r="K93" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94" spans="9:16">
+      <c r="I94" s="120"/>
+      <c r="J94" s="121"/>
+      <c r="K94" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="9:16">
+      <c r="I95" s="122"/>
+      <c r="J95" s="123"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+    </row>
+    <row r="96" spans="9:16">
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+    </row>
+    <row r="97" spans="9:16">
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+    </row>
+    <row r="98" spans="9:16">
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+    </row>
+    <row r="99" spans="9:16">
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+    </row>
+    <row r="100" spans="9:16">
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+    </row>
+    <row r="101" spans="9:16">
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+    </row>
+    <row r="102" spans="9:16">
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+    </row>
+    <row r="103" spans="9:16">
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+    </row>
+    <row r="104" spans="9:16">
+      <c r="I104" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="J104" s="124"/>
+      <c r="K104" s="124"/>
+      <c r="L104" s="124"/>
+      <c r="M104" s="124"/>
+      <c r="N104" s="124"/>
+      <c r="O104" s="124"/>
+      <c r="P104" s="124"/>
+    </row>
   </sheetData>
-  <mergeCells count="365">
+  <mergeCells count="407">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:M4"/>
@@ -6412,37 +6715,44 @@
     <mergeCell ref="O49:P49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="H51:I51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:P51"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O52:P52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:P53"/>
     <mergeCell ref="R53:S53"/>
     <mergeCell ref="U53:V53"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="R54:S54"/>
     <mergeCell ref="U54:V54"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
     <mergeCell ref="R55:S55"/>
     <mergeCell ref="U55:V55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="C56:J56"/>
     <mergeCell ref="R56:S56"/>
     <mergeCell ref="U56:V56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="O57:P57"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="U57:V57"/>
-    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="O58:P58"/>
     <mergeCell ref="R58:S58"/>
     <mergeCell ref="U58:V58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:P59"/>
     <mergeCell ref="R59:S59"/>
     <mergeCell ref="U59:V59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
     <mergeCell ref="R60:S60"/>
     <mergeCell ref="U60:V60"/>
     <mergeCell ref="R61:S61"/>
@@ -6535,6 +6845,36 @@
     <mergeCell ref="T83:U83"/>
     <mergeCell ref="X83:AB83"/>
     <mergeCell ref="Q84:U84"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="I104:P104"/>
     <mergeCell ref="C2:G3"/>
     <mergeCell ref="I2:M3"/>
     <mergeCell ref="O2:S3"/>
@@ -6546,14 +6886,8 @@
     <mergeCell ref="O24:T25"/>
     <mergeCell ref="C43:D44"/>
     <mergeCell ref="L43:P44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="C51:D52"/>
     <mergeCell ref="C40:J41"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="C45:D46"/>
     <mergeCell ref="R43:V44"/>
-    <mergeCell ref="L53:P54"/>
     <mergeCell ref="R51:V52"/>
     <mergeCell ref="V31:Z32"/>
     <mergeCell ref="Q65:U66"/>
@@ -6562,6 +6896,17 @@
     <mergeCell ref="V10:Z11"/>
     <mergeCell ref="X64:AB65"/>
     <mergeCell ref="X41:AB42"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="L56:P57"/>
+    <mergeCell ref="I88:P89"/>
+    <mergeCell ref="I98:J99"/>
+    <mergeCell ref="I100:J101"/>
+    <mergeCell ref="I102:J103"/>
+    <mergeCell ref="I91:J94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6575,36 +6920,36 @@
   <sheetPr/>
   <dimension ref="B2:X84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="1" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="1" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="T2" s="1" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -6681,47 +7026,47 @@
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="8" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="F5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="L5" s="14"/>
       <c r="N5" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="R5" s="14"/>
       <c r="T5" s="8" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="X5" s="8"/>
     </row>
@@ -6734,7 +7079,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="10">
@@ -6745,7 +7090,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="L6" s="10"/>
       <c r="N6" s="10">
@@ -6756,7 +7101,7 @@
         <v>25</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="R6" s="10"/>
       <c r="T6" s="10">
@@ -6767,7 +7112,7 @@
         <v>25</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="X6" s="10"/>
     </row>
@@ -6780,7 +7125,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F7" s="10"/>
       <c r="H7" s="10">
@@ -6791,7 +7136,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="L7" s="10"/>
       <c r="N7" s="10">
@@ -6802,7 +7147,7 @@
         <v>25</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="R7" s="10"/>
       <c r="T7" s="10">
@@ -6813,7 +7158,7 @@
         <v>25</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="X7" s="10"/>
     </row>
@@ -6826,7 +7171,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="F8" s="10"/>
       <c r="H8" s="10">
@@ -6837,7 +7182,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="L8" s="10"/>
       <c r="N8" s="10">
@@ -6848,7 +7193,7 @@
         <v>25</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="R8" s="10"/>
       <c r="T8" s="10">
@@ -6859,7 +7204,7 @@
         <v>25</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="X8" s="10"/>
     </row>
@@ -6872,7 +7217,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="F9" s="10"/>
       <c r="H9" s="10">
@@ -6883,7 +7228,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="L9" s="10"/>
       <c r="N9" s="10">
@@ -6894,7 +7239,7 @@
         <v>25</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="R9" s="10"/>
       <c r="T9" s="10">
@@ -6905,7 +7250,7 @@
         <v>25</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="X9" s="10"/>
     </row>
@@ -6918,7 +7263,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10">
@@ -6929,7 +7274,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="L10" s="10"/>
       <c r="N10" s="10">
@@ -6940,7 +7285,7 @@
         <v>25</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="R10" s="10"/>
       <c r="T10" s="10">
@@ -6951,7 +7296,7 @@
         <v>25</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="X10" s="10"/>
     </row>
@@ -6964,7 +7309,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="10">
@@ -6975,7 +7320,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="L11" s="10"/>
       <c r="N11" s="10">
@@ -6986,7 +7331,7 @@
         <v>25</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="R11" s="10"/>
       <c r="T11" s="10">
@@ -6997,7 +7342,7 @@
         <v>25</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="X11" s="10"/>
     </row>
@@ -7010,7 +7355,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="10">
@@ -7021,7 +7366,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="L12" s="10"/>
       <c r="N12" s="10">
@@ -7032,7 +7377,7 @@
         <v>25</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="R12" s="10"/>
       <c r="T12" s="10">
@@ -7043,7 +7388,7 @@
         <v>25</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="X12" s="10"/>
     </row>
@@ -7056,7 +7401,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="F13" s="10"/>
       <c r="H13" s="10">
@@ -7067,7 +7412,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="L13" s="10"/>
       <c r="N13" s="10">
@@ -7078,7 +7423,7 @@
         <v>25</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="R13" s="10"/>
       <c r="T13" s="10">
@@ -7089,7 +7434,7 @@
         <v>25</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="X13" s="10"/>
     </row>
@@ -7125,28 +7470,28 @@
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="12" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="H18" s="12" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="N18" s="12" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="T18" s="12" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
@@ -7223,47 +7568,47 @@
     </row>
     <row r="21" spans="2:24">
       <c r="B21" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="F21" s="14"/>
       <c r="H21" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="L21" s="14"/>
       <c r="N21" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="R21" s="14"/>
       <c r="T21" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="X21" s="14"/>
     </row>
@@ -7276,7 +7621,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="F22" s="10"/>
       <c r="H22" s="10">
@@ -7287,7 +7632,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="L22" s="10"/>
       <c r="N22" s="10">
@@ -7298,7 +7643,7 @@
         <v>25</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="R22" s="10"/>
       <c r="T22" s="10">
@@ -7309,7 +7654,7 @@
         <v>25</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="X22" s="10"/>
     </row>
@@ -7322,7 +7667,7 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="F23" s="10"/>
       <c r="H23" s="10">
@@ -7333,7 +7678,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="L23" s="10"/>
       <c r="N23" s="10">
@@ -7344,7 +7689,7 @@
         <v>25</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="R23" s="10"/>
       <c r="T23" s="10">
@@ -7355,7 +7700,7 @@
         <v>25</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="X23" s="10"/>
     </row>
@@ -7368,7 +7713,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="F24" s="10"/>
       <c r="H24" s="10">
@@ -7379,7 +7724,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="L24" s="10"/>
       <c r="N24" s="10">
@@ -7390,7 +7735,7 @@
         <v>25</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="R24" s="10"/>
       <c r="T24" s="10">
@@ -7401,7 +7746,7 @@
         <v>25</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="X24" s="10"/>
     </row>
@@ -7414,7 +7759,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="F25" s="10"/>
       <c r="H25" s="10">
@@ -7425,7 +7770,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="L25" s="10"/>
       <c r="N25" s="10">
@@ -7436,7 +7781,7 @@
         <v>25</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="R25" s="10"/>
       <c r="T25" s="10">
@@ -7447,7 +7792,7 @@
         <v>25</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="X25" s="10"/>
     </row>
@@ -7460,7 +7805,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="F26" s="10"/>
       <c r="H26" s="10">
@@ -7471,7 +7816,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="L26" s="10"/>
       <c r="N26" s="10">
@@ -7482,7 +7827,7 @@
         <v>25</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="R26" s="10"/>
       <c r="T26" s="10">
@@ -7493,7 +7838,7 @@
         <v>25</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="X26" s="10"/>
     </row>
@@ -7506,7 +7851,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="F27" s="10"/>
       <c r="H27" s="10">
@@ -7517,7 +7862,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="L27" s="10"/>
       <c r="N27" s="10">
@@ -7528,7 +7873,7 @@
         <v>25</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="R27" s="10"/>
       <c r="T27" s="10">
@@ -7539,7 +7884,7 @@
         <v>25</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="X27" s="10"/>
     </row>
@@ -7552,7 +7897,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="F28" s="10"/>
       <c r="H28" s="10">
@@ -7563,7 +7908,7 @@
         <v>25</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="L28" s="10"/>
       <c r="N28" s="10">
@@ -7574,7 +7919,7 @@
         <v>25</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="R28" s="10"/>
       <c r="T28" s="10">
@@ -7585,7 +7930,7 @@
         <v>25</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="X28" s="10"/>
     </row>
@@ -7598,7 +7943,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="F29" s="10"/>
       <c r="H29" s="10">
@@ -7609,7 +7954,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="L29" s="10"/>
       <c r="N29" s="10">
@@ -7620,7 +7965,7 @@
         <v>25</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="R29" s="10"/>
       <c r="T29" s="10">
@@ -7631,7 +7976,7 @@
         <v>25</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="X29" s="10"/>
     </row>
@@ -7667,28 +8012,28 @@
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="15" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="H34" s="15" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="N34" s="15" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="T34" s="15" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
@@ -7765,47 +8110,47 @@
     </row>
     <row r="37" spans="2:24">
       <c r="B37" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="F37" s="14"/>
       <c r="H37" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="L37" s="14"/>
       <c r="N37" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O37" s="8"/>
       <c r="P37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="R37" s="14"/>
       <c r="T37" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W37" s="8" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="X37" s="14"/>
     </row>
@@ -7818,7 +8163,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="F38" s="10"/>
       <c r="H38" s="10">
@@ -7829,7 +8174,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L38" s="10"/>
       <c r="N38" s="10">
@@ -7840,7 +8185,7 @@
         <v>25</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="R38" s="10"/>
       <c r="T38" s="10">
@@ -7851,7 +8196,7 @@
         <v>25</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="X38" s="10"/>
     </row>
@@ -7864,7 +8209,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="F39" s="10"/>
       <c r="H39" s="10">
@@ -7875,7 +8220,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="L39" s="10"/>
       <c r="N39" s="10">
@@ -7886,7 +8231,7 @@
         <v>25</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="R39" s="10"/>
       <c r="T39" s="10">
@@ -7897,7 +8242,7 @@
         <v>25</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="X39" s="10"/>
     </row>
@@ -7910,7 +8255,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="F40" s="10"/>
       <c r="H40" s="10">
@@ -7921,7 +8266,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="L40" s="10"/>
       <c r="N40" s="10">
@@ -7932,7 +8277,7 @@
         <v>25</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="R40" s="10"/>
       <c r="T40" s="10">
@@ -7943,7 +8288,7 @@
         <v>25</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="X40" s="10"/>
     </row>
@@ -7956,7 +8301,7 @@
         <v>25</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="F41" s="10"/>
       <c r="H41" s="10">
@@ -7967,7 +8312,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="L41" s="10"/>
       <c r="N41" s="10">
@@ -7978,7 +8323,7 @@
         <v>25</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="R41" s="10"/>
       <c r="T41" s="10">
@@ -7989,7 +8334,7 @@
         <v>25</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="X41" s="10"/>
     </row>
@@ -8002,7 +8347,7 @@
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="F42" s="10"/>
       <c r="H42" s="10">
@@ -8013,7 +8358,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="L42" s="10"/>
       <c r="N42" s="10">
@@ -8024,7 +8369,7 @@
         <v>25</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="R42" s="10"/>
       <c r="T42" s="10">
@@ -8035,7 +8380,7 @@
         <v>25</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="X42" s="10"/>
     </row>
@@ -8048,7 +8393,7 @@
         <v>25</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="F43" s="10"/>
       <c r="H43" s="10">
@@ -8059,7 +8404,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="L43" s="10"/>
       <c r="N43" s="10">
@@ -8070,7 +8415,7 @@
         <v>25</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="R43" s="10"/>
       <c r="T43" s="10">
@@ -8081,7 +8426,7 @@
         <v>25</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="X43" s="10"/>
     </row>
@@ -8094,7 +8439,7 @@
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F44" s="10"/>
       <c r="H44" s="10">
@@ -8105,7 +8450,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L44" s="10"/>
       <c r="N44" s="10">
@@ -8116,7 +8461,7 @@
         <v>25</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="R44" s="10"/>
       <c r="T44" s="10">
@@ -8127,7 +8472,7 @@
         <v>25</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="X44" s="10"/>
     </row>
@@ -8140,7 +8485,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F45" s="10"/>
       <c r="H45" s="10">
@@ -8151,7 +8496,7 @@
         <v>25</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="L45" s="10"/>
       <c r="N45" s="10">
@@ -8162,7 +8507,7 @@
         <v>25</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="R45" s="10"/>
       <c r="T45" s="10">
@@ -8173,7 +8518,7 @@
         <v>25</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="X45" s="10"/>
     </row>
@@ -8209,28 +8554,28 @@
     </row>
     <row r="49" spans="2:24">
       <c r="B49" s="17" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="H49" s="17" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="N49" s="17" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="T49" s="17" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="U49" s="18"/>
       <c r="V49" s="18"/>
@@ -8307,47 +8652,47 @@
     </row>
     <row r="52" spans="2:24">
       <c r="B52" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="F52" s="14"/>
       <c r="H52" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="L52" s="14"/>
       <c r="N52" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O52" s="8"/>
       <c r="P52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="R52" s="14"/>
       <c r="T52" s="9" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="8" t="s">
         <v>25</v>
       </c>
       <c r="W52" s="8" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="X52" s="14"/>
     </row>
@@ -8360,7 +8705,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="F53" s="10"/>
       <c r="H53" s="10">
@@ -8371,7 +8716,7 @@
         <v>25</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="L53" s="10"/>
       <c r="N53" s="10">
@@ -8382,7 +8727,7 @@
         <v>25</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="R53" s="10"/>
       <c r="T53" s="10">
@@ -8393,7 +8738,7 @@
         <v>25</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="X53" s="10"/>
     </row>
@@ -8406,7 +8751,7 @@
         <v>25</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="F54" s="10"/>
       <c r="H54" s="10">
@@ -8417,7 +8762,7 @@
         <v>25</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="L54" s="10"/>
       <c r="N54" s="10">
@@ -8428,7 +8773,7 @@
         <v>25</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="R54" s="10"/>
       <c r="T54" s="10">
@@ -8439,7 +8784,7 @@
         <v>25</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="X54" s="10"/>
     </row>
@@ -8452,7 +8797,7 @@
         <v>25</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F55" s="10"/>
       <c r="H55" s="10">
@@ -8463,7 +8808,7 @@
         <v>25</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="L55" s="10"/>
       <c r="N55" s="10">
@@ -8474,7 +8819,7 @@
         <v>25</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="R55" s="10"/>
       <c r="T55" s="10">
@@ -8485,7 +8830,7 @@
         <v>25</v>
       </c>
       <c r="W55" s="10" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="X55" s="10"/>
     </row>
@@ -8498,7 +8843,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="F56" s="10"/>
       <c r="H56" s="10">
@@ -8509,7 +8854,7 @@
         <v>25</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="L56" s="10"/>
       <c r="N56" s="10">
@@ -8520,7 +8865,7 @@
         <v>25</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="R56" s="10"/>
       <c r="T56" s="10">
@@ -8531,7 +8876,7 @@
         <v>25</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="X56" s="10"/>
     </row>
@@ -8544,7 +8889,7 @@
         <v>25</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="F57" s="10"/>
       <c r="H57" s="10">
@@ -8555,7 +8900,7 @@
         <v>25</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="L57" s="10"/>
       <c r="N57" s="10">
@@ -8566,7 +8911,7 @@
         <v>25</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="R57" s="10"/>
       <c r="T57" s="10">
@@ -8577,7 +8922,7 @@
         <v>25</v>
       </c>
       <c r="W57" s="10" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="X57" s="10"/>
     </row>
@@ -8590,7 +8935,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="F58" s="10"/>
       <c r="H58" s="10">
@@ -8601,7 +8946,7 @@
         <v>25</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="L58" s="10"/>
       <c r="N58" s="10">
@@ -8612,7 +8957,7 @@
         <v>25</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="R58" s="10"/>
       <c r="T58" s="10">
@@ -8623,7 +8968,7 @@
         <v>25</v>
       </c>
       <c r="W58" s="10" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="X58" s="10"/>
     </row>
@@ -8636,7 +8981,7 @@
         <v>25</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="F59" s="10"/>
       <c r="H59" s="10">
@@ -8647,7 +8992,7 @@
         <v>25</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="L59" s="10"/>
       <c r="N59" s="10">
@@ -8658,7 +9003,7 @@
         <v>25</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="R59" s="10"/>
       <c r="T59" s="10">
@@ -8669,7 +9014,7 @@
         <v>25</v>
       </c>
       <c r="W59" s="10" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="X59" s="10"/>
     </row>
@@ -8682,7 +9027,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="F60" s="10"/>
       <c r="H60" s="10">
@@ -8693,7 +9038,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="L60" s="10"/>
       <c r="N60" s="10">
@@ -8704,7 +9049,7 @@
         <v>25</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="R60" s="10"/>
       <c r="T60" s="10">
@@ -8715,7 +9060,7 @@
         <v>25</v>
       </c>
       <c r="W60" s="10" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="X60" s="10"/>
     </row>
@@ -8751,7 +9096,7 @@
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="19" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
@@ -8759,7 +9104,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="I65" s="19" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
@@ -8820,7 +9165,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
@@ -8833,9 +9178,7 @@
       <c r="K68" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L68" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="L68" s="24"/>
       <c r="M68" s="24"/>
       <c r="N68" s="10" t="s">
         <v>54</v>
@@ -8850,7 +9193,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10" t="s">
@@ -8863,9 +9206,7 @@
       <c r="K69" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L69" s="24" t="s">
-        <v>68</v>
-      </c>
+      <c r="L69" s="24"/>
       <c r="M69" s="24"/>
       <c r="N69" s="10" t="s">
         <v>54</v>
@@ -8880,7 +9221,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
@@ -8893,9 +9234,7 @@
       <c r="K70" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L70" s="24" t="s">
-        <v>74</v>
-      </c>
+      <c r="L70" s="24"/>
       <c r="M70" s="24"/>
       <c r="N70" s="10" t="s">
         <v>54</v>
@@ -8910,7 +9249,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10" t="s">
@@ -8923,9 +9262,7 @@
       <c r="K71" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L71" s="24" t="s">
-        <v>80</v>
-      </c>
+      <c r="L71" s="24"/>
       <c r="M71" s="24"/>
       <c r="N71" s="10" t="s">
         <v>54</v>
@@ -8940,7 +9277,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10" t="s">
@@ -8953,9 +9290,7 @@
       <c r="K72" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L72" s="24" t="s">
-        <v>465</v>
-      </c>
+      <c r="L72" s="24"/>
       <c r="M72" s="24"/>
       <c r="N72" s="10" t="s">
         <v>54</v>
@@ -8970,7 +9305,7 @@
         <v>25</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
@@ -8983,9 +9318,7 @@
       <c r="K73" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="24" t="s">
-        <v>467</v>
-      </c>
+      <c r="L73" s="24"/>
       <c r="M73" s="24"/>
       <c r="N73" s="10" t="s">
         <v>54</v>
@@ -9000,7 +9333,7 @@
         <v>25</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10" t="s">
@@ -9013,9 +9346,7 @@
       <c r="K74" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L74" s="24" t="s">
-        <v>469</v>
-      </c>
+      <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="10" t="s">
         <v>54</v>
@@ -9030,7 +9361,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
@@ -9043,9 +9374,7 @@
       <c r="K75" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L75" s="24" t="s">
-        <v>471</v>
-      </c>
+      <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="10" t="s">
         <v>54</v>
@@ -9060,7 +9389,7 @@
         <v>25</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10" t="s">
@@ -9073,9 +9402,7 @@
       <c r="K76" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="24" t="s">
-        <v>473</v>
-      </c>
+      <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="10" t="s">
         <v>54</v>
@@ -9090,7 +9417,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10" t="s">
@@ -9103,9 +9430,7 @@
       <c r="K77" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L77" s="24" t="s">
-        <v>475</v>
-      </c>
+      <c r="L77" s="24"/>
       <c r="M77" s="24"/>
       <c r="N77" s="10" t="s">
         <v>54</v>
@@ -9120,7 +9445,7 @@
         <v>25</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10" t="s">
@@ -9133,9 +9458,7 @@
       <c r="K78" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L78" s="24" t="s">
-        <v>477</v>
-      </c>
+      <c r="L78" s="24"/>
       <c r="M78" s="24"/>
       <c r="N78" s="10" t="s">
         <v>54</v>
@@ -9150,7 +9473,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
@@ -9163,9 +9486,7 @@
       <c r="K79" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L79" s="24" t="s">
-        <v>479</v>
-      </c>
+      <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="10" t="s">
         <v>54</v>
@@ -9180,7 +9501,7 @@
         <v>25</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
@@ -9208,7 +9529,7 @@
         <v>25</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
@@ -9236,7 +9557,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10" t="s">
@@ -9264,7 +9585,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
